--- a/10h_input_jpg/10h_simulation_results.xlsx
+++ b/10h_input_jpg/10h_simulation_results.xlsx
@@ -482,25 +482,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.315756153002192</v>
+        <v>5.833254061569168</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04800337416008091</v>
+        <v>0.1472975578534861</v>
       </c>
       <c r="D2" t="n">
-        <v>1.944362781034022</v>
+        <v>1.944646404970434</v>
       </c>
       <c r="E2" t="n">
-        <v>18.92508294329236</v>
+        <v>18.88637336191712</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1780581255633543</v>
+        <v>0.1696965569244366</v>
       </c>
       <c r="G2" t="n">
-        <v>6107.458136515911</v>
+        <v>6109.236001742718</v>
       </c>
       <c r="H2" t="n">
-        <v>3.06961318157378</v>
+        <v>0.911347832136173</v>
       </c>
     </row>
     <row r="3">
@@ -510,25 +510,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.318677997315976</v>
+        <v>6.327968863198887</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04798664521941648</v>
+        <v>0.134052630476177</v>
       </c>
       <c r="D3" t="n">
-        <v>1.955281552042668</v>
+        <v>1.964702243849801</v>
       </c>
       <c r="E3" t="n">
-        <v>18.92159537185528</v>
+        <v>17.30294619059484</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1779642103081972</v>
+        <v>0.1782538227872062</v>
       </c>
       <c r="G3" t="n">
-        <v>6107.463358697351</v>
+        <v>6062.364114554147</v>
       </c>
       <c r="H3" t="n">
-        <v>3.13972080306374</v>
+        <v>1.53791311110054</v>
       </c>
     </row>
     <row r="4">
@@ -538,25 +538,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.315437274253781</v>
+        <v>5.67485550514369</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0478458540880731</v>
+        <v>0.1009900445756724</v>
       </c>
       <c r="D4" t="n">
-        <v>1.948294809103138</v>
+        <v>1.938821764477429</v>
       </c>
       <c r="E4" t="n">
-        <v>18.91245690147094</v>
+        <v>16.15465282975123</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1778869827062669</v>
+        <v>0.1830590477412406</v>
       </c>
       <c r="G4" t="n">
-        <v>6104.108676621951</v>
+        <v>6019.754979563597</v>
       </c>
       <c r="H4" t="n">
-        <v>3.25927753971035</v>
+        <v>2.90551317486236</v>
       </c>
     </row>
     <row r="5">
@@ -566,25 +566,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.319711020733433</v>
+        <v>6.546120543317418</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04795127184079963</v>
+        <v>0.1303024648921482</v>
       </c>
       <c r="D5" t="n">
-        <v>1.964306100428014</v>
+        <v>1.986735799916576</v>
       </c>
       <c r="E5" t="n">
-        <v>18.92318161643528</v>
+        <v>16.76887597261089</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1780920453369916</v>
+        <v>0.1848004470217258</v>
       </c>
       <c r="G5" t="n">
-        <v>6108.587902408361</v>
+        <v>6049.620366248653</v>
       </c>
       <c r="H5" t="n">
-        <v>3.18250201029997</v>
+        <v>1.69338815411278</v>
       </c>
     </row>
     <row r="6">
@@ -594,25 +594,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.318803025006717</v>
+        <v>6.333998392040705</v>
       </c>
       <c r="C6" t="n">
-        <v>0.04799357325594309</v>
+        <v>0.1719612165208677</v>
       </c>
       <c r="D6" t="n">
-        <v>1.966032617957051</v>
+        <v>2.002295018547721</v>
       </c>
       <c r="E6" t="n">
-        <v>18.93272463110372</v>
+        <v>18.57203766902644</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1781031429693142</v>
+        <v>0.172545872591378</v>
       </c>
       <c r="G6" t="n">
-        <v>6111.638861991857</v>
+        <v>6110.517396737078</v>
       </c>
       <c r="H6" t="n">
-        <v>3.11930799195648</v>
+        <v>0.827499432704195</v>
       </c>
     </row>
     <row r="7">
@@ -622,25 +622,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.320304914030963</v>
+        <v>6.667674182380127</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04802554360080405</v>
+        <v>0.1614344908759031</v>
       </c>
       <c r="D7" t="n">
-        <v>1.962949601151334</v>
+        <v>1.986954352699896</v>
       </c>
       <c r="E7" t="n">
-        <v>18.92590973372641</v>
+        <v>17.47236251625336</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1779974944976579</v>
+        <v>0.1763478468558564</v>
       </c>
       <c r="G7" t="n">
-        <v>6109.340639063193</v>
+        <v>6071.701780758098</v>
       </c>
       <c r="H7" t="n">
-        <v>3.12368484461342</v>
+        <v>1.15765723057483</v>
       </c>
     </row>
     <row r="8">
@@ -650,25 +650,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.317299117820773</v>
+        <v>5.973991479548407</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0478963094261098</v>
+        <v>0.1236724348959039</v>
       </c>
       <c r="D8" t="n">
-        <v>1.966763587905733</v>
+        <v>2.002287749846283</v>
       </c>
       <c r="E8" t="n">
-        <v>18.93165526950243</v>
+        <v>18.25702365109607</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1780569085509</v>
+        <v>0.17375135829529</v>
       </c>
       <c r="G8" t="n">
-        <v>6111.274605978584</v>
+        <v>6099.041437231268</v>
       </c>
       <c r="H8" t="n">
-        <v>3.1788646273934</v>
+        <v>1.39718252445483</v>
       </c>
     </row>
     <row r="9">
@@ -678,25 +678,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.316247093276568</v>
+        <v>5.935328513530498</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04797158001110847</v>
+        <v>0.1171161472398432</v>
       </c>
       <c r="D9" t="n">
-        <v>1.941537131288718</v>
+        <v>1.92657530325156</v>
       </c>
       <c r="E9" t="n">
-        <v>18.91423055946424</v>
+        <v>17.10846728296652</v>
       </c>
       <c r="F9" t="n">
-        <v>0.177776039403357</v>
+        <v>0.1744304880855</v>
       </c>
       <c r="G9" t="n">
-        <v>6104.041623493066</v>
+        <v>6047.937897063978</v>
       </c>
       <c r="H9" t="n">
-        <v>3.14961078239005</v>
+        <v>1.91776484010587</v>
       </c>
     </row>
     <row r="10">
@@ -706,25 +706,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.317781969276377</v>
+        <v>6.000468102583223</v>
       </c>
       <c r="C10" t="n">
-        <v>0.04786295987647</v>
+        <v>0.1199028479293351</v>
       </c>
       <c r="D10" t="n">
-        <v>1.975435201036435</v>
+        <v>2.027014539160962</v>
       </c>
       <c r="E10" t="n">
-        <v>18.93519233147074</v>
+        <v>18.18664196187676</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1781434027450222</v>
+        <v>0.1762018801618494</v>
       </c>
       <c r="G10" t="n">
-        <v>6112.902041540466</v>
+        <v>6101.377810849895</v>
       </c>
       <c r="H10" t="n">
-        <v>3.21029537358886</v>
+        <v>1.50030457336225</v>
       </c>
     </row>
     <row r="11">
@@ -734,25 +734,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.31513750454018</v>
+        <v>5.483775724080666</v>
       </c>
       <c r="C11" t="n">
-        <v>0.04780227427503883</v>
+        <v>0.1021995721164469</v>
       </c>
       <c r="D11" t="n">
-        <v>1.967873900942711</v>
+        <v>2.005290007514043</v>
       </c>
       <c r="E11" t="n">
-        <v>18.93225279406689</v>
+        <v>18.25028310398103</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1780747677674225</v>
+        <v>0.1750154049401485</v>
       </c>
       <c r="G11" t="n">
-        <v>6111.460954912877</v>
+        <v>6098.614408711042</v>
       </c>
       <c r="H11" t="n">
-        <v>3.24690544666241</v>
+        <v>1.98633138294104</v>
       </c>
     </row>
     <row r="12">
@@ -762,25 +762,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4.321212026171189</v>
+        <v>6.890056541328161</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0480870253162865</v>
+        <v>0.1830547513314915</v>
       </c>
       <c r="D12" t="n">
-        <v>1.958856705511006</v>
+        <v>1.974722361264683</v>
       </c>
       <c r="E12" t="n">
-        <v>18.92324771649282</v>
+        <v>17.32919510077446</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1779480632678304</v>
+        <v>0.1759886806495896</v>
       </c>
       <c r="G12" t="n">
-        <v>6108.271490185209</v>
+        <v>6065.167280977648</v>
       </c>
       <c r="H12" t="n">
-        <v>3.08837019937148</v>
+        <v>0.978083664423982</v>
       </c>
     </row>
     <row r="13">
@@ -790,25 +790,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4.318717887096062</v>
+        <v>6.130296418482184</v>
       </c>
       <c r="C13" t="n">
-        <v>0.04778082551314437</v>
+        <v>0.1018523207890962</v>
       </c>
       <c r="D13" t="n">
-        <v>1.983749653247216</v>
+        <v>2.043017234297057</v>
       </c>
       <c r="E13" t="n">
-        <v>18.93262577976386</v>
+        <v>16.75878503610372</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1782106152834225</v>
+        <v>0.1850211310654382</v>
       </c>
       <c r="G13" t="n">
-        <v>6112.3376070748</v>
+        <v>6055.925656072635</v>
       </c>
       <c r="H13" t="n">
-        <v>3.29345484899512</v>
+        <v>2.37945478412188</v>
       </c>
     </row>
     <row r="14">
@@ -818,25 +818,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4.320784751177024</v>
+        <v>6.710839728686767</v>
       </c>
       <c r="C14" t="n">
-        <v>0.04807801471774326</v>
+        <v>0.2522406468460995</v>
       </c>
       <c r="D14" t="n">
-        <v>1.964151699411352</v>
+        <v>1.997109189842352</v>
       </c>
       <c r="E14" t="n">
-        <v>18.93175340758661</v>
+        <v>18.56712086232983</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1781143801396298</v>
+        <v>0.1729625528384069</v>
       </c>
       <c r="G14" t="n">
-        <v>6111.286966707645</v>
+        <v>6110.388981282454</v>
       </c>
       <c r="H14" t="n">
-        <v>3.04851201984684</v>
+        <v>0.5121985270673221</v>
       </c>
     </row>
     <row r="15">
@@ -846,25 +846,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4.319866151495042</v>
+        <v>6.538136331097306</v>
       </c>
       <c r="C15" t="n">
-        <v>0.04792560552745468</v>
+        <v>0.1217800868842478</v>
       </c>
       <c r="D15" t="n">
-        <v>1.965547881020786</v>
+        <v>1.989827669445793</v>
       </c>
       <c r="E15" t="n">
-        <v>18.92352332487897</v>
+        <v>16.71375540382843</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1780780425273552</v>
+        <v>0.1844704354402378</v>
       </c>
       <c r="G15" t="n">
-        <v>6108.748955953352</v>
+        <v>6047.806572200014</v>
       </c>
       <c r="H15" t="n">
-        <v>3.17864256983343</v>
+        <v>1.74393132270113</v>
       </c>
     </row>
     <row r="16">
@@ -874,25 +874,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>4.316097242237985</v>
+        <v>5.632919931336352</v>
       </c>
       <c r="C16" t="n">
-        <v>0.04779255583476107</v>
+        <v>0.09662916113628395</v>
       </c>
       <c r="D16" t="n">
-        <v>1.963024584753513</v>
+        <v>1.981727535340764</v>
       </c>
       <c r="E16" t="n">
-        <v>18.92187753506395</v>
+        <v>16.58654250035147</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1780627337973758</v>
+        <v>0.1848319283230672</v>
       </c>
       <c r="G16" t="n">
-        <v>6107.974722660308</v>
+        <v>6040.985699807918</v>
       </c>
       <c r="H16" t="n">
-        <v>3.28587593646275</v>
+        <v>2.85123183919759</v>
       </c>
     </row>
     <row r="17">
@@ -902,25 +902,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>4.319593012191465</v>
+        <v>6.310083978883097</v>
       </c>
       <c r="C17" t="n">
-        <v>0.04783515108205615</v>
+        <v>0.1158849304498312</v>
       </c>
       <c r="D17" t="n">
-        <v>1.987141448721284</v>
+        <v>2.057794611170878</v>
       </c>
       <c r="E17" t="n">
-        <v>18.93718388590375</v>
+        <v>17.44780462296231</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1782865362422027</v>
+        <v>0.1845287872602643</v>
       </c>
       <c r="G17" t="n">
-        <v>6114.054678105938</v>
+        <v>6082.971922298752</v>
       </c>
       <c r="H17" t="n">
-        <v>3.24407546624204</v>
+        <v>1.75998580011438</v>
       </c>
     </row>
     <row r="18">
@@ -930,25 +930,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4.317245238605073</v>
+        <v>5.814842201439082</v>
       </c>
       <c r="C18" t="n">
-        <v>0.04780434205309698</v>
+        <v>0.1018837597483257</v>
       </c>
       <c r="D18" t="n">
-        <v>1.97388739992093</v>
+        <v>2.016351353818892</v>
       </c>
       <c r="E18" t="n">
-        <v>18.92982858449912</v>
+        <v>17.17059243162325</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1781565680035888</v>
+        <v>0.1833961884577541</v>
       </c>
       <c r="G18" t="n">
-        <v>6111.076267170283</v>
+        <v>6066.013154049031</v>
       </c>
       <c r="H18" t="n">
-        <v>3.27313385482381</v>
+        <v>2.37882329014506</v>
       </c>
     </row>
     <row r="19">
@@ -958,25 +958,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4.318336344147432</v>
+        <v>6.292633895550459</v>
       </c>
       <c r="C19" t="n">
-        <v>0.04795437395384814</v>
+        <v>0.1403493828621222</v>
       </c>
       <c r="D19" t="n">
-        <v>1.971980606988894</v>
+        <v>2.015569567501732</v>
       </c>
       <c r="E19" t="n">
-        <v>18.93235526413089</v>
+        <v>17.9287254480108</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1781585291013307</v>
+        <v>0.1790399977851823</v>
       </c>
       <c r="G19" t="n">
-        <v>6111.876037927541</v>
+        <v>6091.960377841669</v>
       </c>
       <c r="H19" t="n">
-        <v>3.2082935568866</v>
+        <v>1.25431509955433</v>
       </c>
     </row>
     <row r="20">
@@ -986,25 +986,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>4.31972241216864</v>
+        <v>6.732602823771392</v>
       </c>
       <c r="C20" t="n">
-        <v>0.04832377924616258</v>
+        <v>0.1922525528570254</v>
       </c>
       <c r="D20" t="n">
-        <v>1.91539730163769</v>
+        <v>1.861227320488889</v>
       </c>
       <c r="E20" t="n">
-        <v>18.90100124813313</v>
+        <v>17.01910525852085</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1776726689690616</v>
+        <v>0.1759981935725951</v>
       </c>
       <c r="G20" t="n">
-        <v>6097.612273404007</v>
+        <v>6035.941945272384</v>
       </c>
       <c r="H20" t="n">
-        <v>2.93137128314127</v>
+        <v>0.852702418888289</v>
       </c>
     </row>
     <row r="21">
@@ -1014,25 +1014,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>4.318331412675712</v>
+        <v>6.561539454633092</v>
       </c>
       <c r="C21" t="n">
-        <v>0.04831106220220679</v>
+        <v>0.1734901406689448</v>
       </c>
       <c r="D21" t="n">
-        <v>1.911338691840418</v>
+        <v>1.851416121578856</v>
       </c>
       <c r="E21" t="n">
-        <v>18.89917468309031</v>
+        <v>17.01949366720076</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1775844807735089</v>
+        <v>0.1733893672606779</v>
       </c>
       <c r="G21" t="n">
-        <v>6096.508884144736</v>
+        <v>6033.162928315037</v>
       </c>
       <c r="H21" t="n">
-        <v>2.94799332823787</v>
+        <v>0.957244230205614</v>
       </c>
     </row>
     <row r="22">
@@ -1042,25 +1042,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4.320249230298148</v>
+        <v>6.830259235871939</v>
       </c>
       <c r="C22" t="n">
-        <v>0.04834225281742312</v>
+        <v>0.2238706104150317</v>
       </c>
       <c r="D22" t="n">
-        <v>1.918796501832766</v>
+        <v>1.870805292339937</v>
       </c>
       <c r="E22" t="n">
-        <v>18.90402725240006</v>
+        <v>17.25455781747839</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1777235367048841</v>
+        <v>0.175381348138253</v>
       </c>
       <c r="G22" t="n">
-        <v>6098.87020773456</v>
+        <v>6045.299631100494</v>
       </c>
       <c r="H22" t="n">
-        <v>2.92437493090148</v>
+        <v>0.674227363507881</v>
       </c>
     </row>
     <row r="23">
@@ -1070,25 +1070,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>4.314436685223694</v>
+        <v>5.848835682564564</v>
       </c>
       <c r="C23" t="n">
-        <v>0.04818024513381067</v>
+        <v>0.1670031701307835</v>
       </c>
       <c r="D23" t="n">
-        <v>1.916091878222325</v>
+        <v>1.872127487632915</v>
       </c>
       <c r="E23" t="n">
-        <v>18.91189670252778</v>
+        <v>18.687204679106</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1778570417810715</v>
+        <v>0.1674095901359926</v>
       </c>
       <c r="G23" t="n">
-        <v>6100.328294694144</v>
+        <v>6087.918512848004</v>
       </c>
       <c r="H23" t="n">
-        <v>2.96215418250132</v>
+        <v>0.695686426577636</v>
       </c>
     </row>
     <row r="24">
@@ -1098,25 +1098,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>4.320790972089048</v>
+        <v>6.811770312418902</v>
       </c>
       <c r="C24" t="n">
-        <v>0.04837929515297035</v>
+        <v>0.4684115035409641</v>
       </c>
       <c r="D24" t="n">
-        <v>1.927317972825458</v>
+        <v>1.900157668182939</v>
       </c>
       <c r="E24" t="n">
-        <v>18.91638063819642</v>
+        <v>18.70473673898925</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1779962333393201</v>
+        <v>0.1691457969961595</v>
       </c>
       <c r="G24" t="n">
-        <v>6103.262683741564</v>
+        <v>6096.517842431346</v>
       </c>
       <c r="H24" t="n">
-        <v>2.8696312833379</v>
+        <v>0.287415252372203</v>
       </c>
     </row>
     <row r="25">
@@ -1126,25 +1126,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4.307555915941516</v>
+        <v>4.801775848537128</v>
       </c>
       <c r="C25" t="n">
-        <v>0.04836873613475818</v>
+        <v>0.3777540294189369</v>
       </c>
       <c r="D25" t="n">
-        <v>1.88411056591806</v>
+        <v>1.814624246953835</v>
       </c>
       <c r="E25" t="n">
-        <v>18.91894065596194</v>
+        <v>21.54119857996843</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1776703557210957</v>
+        <v>0.1602698225655545</v>
       </c>
       <c r="G25" t="n">
-        <v>6095.984074802699</v>
+        <v>6159.119825071165</v>
       </c>
       <c r="H25" t="n">
-        <v>2.73942990793162</v>
+        <v>0.223296019289771</v>
       </c>
     </row>
     <row r="26">
@@ -1154,25 +1154,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>4.306663824834358</v>
+        <v>5.049981512227323</v>
       </c>
       <c r="C26" t="n">
-        <v>0.04809357511923157</v>
+        <v>0.1051382533705773</v>
       </c>
       <c r="D26" t="n">
-        <v>1.886182164382818</v>
+        <v>1.799218311723031</v>
       </c>
       <c r="E26" t="n">
-        <v>18.89465254959727</v>
+        <v>17.97884659794262</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1775506278390697</v>
+        <v>0.1673613441075816</v>
       </c>
       <c r="G26" t="n">
-        <v>6090.883935004485</v>
+        <v>6048.935825783085</v>
       </c>
       <c r="H26" t="n">
-        <v>3.00000005149449</v>
+        <v>1.61447144606745</v>
       </c>
     </row>
     <row r="27">
@@ -1182,25 +1182,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>4.309492078365574</v>
+        <v>5.086376853729235</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0479923744048924</v>
+        <v>0.1110196095153898</v>
       </c>
       <c r="D27" t="n">
-        <v>1.913173137088592</v>
+        <v>1.867569703067651</v>
       </c>
       <c r="E27" t="n">
-        <v>18.91408041050843</v>
+        <v>19.18561296500574</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1778049763292574</v>
+        <v>0.1648198887717528</v>
       </c>
       <c r="G27" t="n">
-        <v>6100.260298282825</v>
+        <v>6100.029793881785</v>
       </c>
       <c r="H27" t="n">
-        <v>3.02371096427335</v>
+        <v>1.15406847546654</v>
       </c>
     </row>
     <row r="28">
@@ -1210,25 +1210,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4.309078023149999</v>
+        <v>5.278499067206979</v>
       </c>
       <c r="C28" t="n">
-        <v>0.04812119926749356</v>
+        <v>0.1166235141178366</v>
       </c>
       <c r="D28" t="n">
-        <v>1.895269517671807</v>
+        <v>1.821260817488918</v>
       </c>
       <c r="E28" t="n">
-        <v>18.90076167013883</v>
+        <v>18.30347954957808</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1776608105551515</v>
+        <v>0.1676412600019112</v>
       </c>
       <c r="G28" t="n">
-        <v>6094.04632796614</v>
+        <v>6063.984015651562</v>
       </c>
       <c r="H28" t="n">
-        <v>2.98439490842752</v>
+        <v>1.2580675905147</v>
       </c>
     </row>
     <row r="29">
@@ -1238,25 +1238,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>4.314100303135955</v>
+        <v>5.945878928972406</v>
       </c>
       <c r="C29" t="n">
-        <v>0.04862087641845569</v>
+        <v>0.4905814257386514</v>
       </c>
       <c r="D29" t="n">
-        <v>1.881170053980236</v>
+        <v>1.797614046171229</v>
       </c>
       <c r="E29" t="n">
-        <v>18.9035642588302</v>
+        <v>19.60057191705055</v>
       </c>
       <c r="F29" t="n">
-        <v>0.177602710739957</v>
+        <v>0.1556904323788588</v>
       </c>
       <c r="G29" t="n">
-        <v>6092.050361669945</v>
+        <v>6098.141126487743</v>
       </c>
       <c r="H29" t="n">
-        <v>2.72062680485945</v>
+        <v>0.241607205179636</v>
       </c>
     </row>
     <row r="30">
@@ -1266,25 +1266,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>4.322181738179026</v>
+        <v>7.292718769199694</v>
       </c>
       <c r="C30" t="n">
-        <v>0.04960162237045867</v>
+        <v>0.8714585869895285</v>
       </c>
       <c r="D30" t="n">
-        <v>1.831889332948385</v>
+        <v>1.685579216503207</v>
       </c>
       <c r="E30" t="n">
-        <v>18.86030802963223</v>
+        <v>16.98009292449501</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1772390420412268</v>
+        <v>0.1651876932613171</v>
       </c>
       <c r="G30" t="n">
-        <v>6071.379543958466</v>
+        <v>5998.035548418299</v>
       </c>
       <c r="H30" t="n">
-        <v>2.44902265636507</v>
+        <v>0.238792595313818</v>
       </c>
     </row>
     <row r="31">
@@ -1294,25 +1294,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4.30466074562153</v>
+        <v>5.075551494183031</v>
       </c>
       <c r="C31" t="n">
-        <v>0.04826469854423533</v>
+        <v>0.1144670754471496</v>
       </c>
       <c r="D31" t="n">
-        <v>1.864863797082162</v>
+        <v>1.754731910275266</v>
       </c>
       <c r="E31" t="n">
-        <v>18.88554531069412</v>
+        <v>18.01494108138509</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1776309122992278</v>
+        <v>0.1732953287057251</v>
       </c>
       <c r="G31" t="n">
-        <v>6084.438315940401</v>
+        <v>6041.815812493208</v>
       </c>
       <c r="H31" t="n">
-        <v>2.89969498353719</v>
+        <v>1.25124580070398</v>
       </c>
     </row>
     <row r="32">
@@ -1322,25 +1322,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>4.304076905200751</v>
+        <v>4.629158333635496</v>
       </c>
       <c r="C32" t="n">
-        <v>0.04794178174967623</v>
+        <v>0.08712971328123791</v>
       </c>
       <c r="D32" t="n">
-        <v>1.880830421788328</v>
+        <v>1.777331172093893</v>
       </c>
       <c r="E32" t="n">
-        <v>18.87860042298246</v>
+        <v>16.08178307870641</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1774723658820341</v>
+        <v>0.1810554957604998</v>
       </c>
       <c r="G32" t="n">
-        <v>6086.259821361696</v>
+        <v>5989.061496269393</v>
       </c>
       <c r="H32" t="n">
-        <v>3.13701648089444</v>
+        <v>3.13685939203221</v>
       </c>
     </row>
     <row r="33">
@@ -1350,25 +1350,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>4.314049994059773</v>
+        <v>5.985352939162229</v>
       </c>
       <c r="C33" t="n">
-        <v>0.04863926043433495</v>
+        <v>0.4653742775051278</v>
       </c>
       <c r="D33" t="n">
-        <v>1.879355825474983</v>
+        <v>1.792913752095862</v>
       </c>
       <c r="E33" t="n">
-        <v>18.90094181975794</v>
+        <v>19.34104948623743</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1779258777402133</v>
+        <v>0.1716949374172543</v>
       </c>
       <c r="G33" t="n">
-        <v>6091.247010901379</v>
+        <v>6092.769030342944</v>
       </c>
       <c r="H33" t="n">
-        <v>2.72543188080497</v>
+        <v>0.25088700252605</v>
       </c>
     </row>
     <row r="34">
@@ -1378,25 +1378,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4.315017397735213</v>
+        <v>6.247919287943679</v>
       </c>
       <c r="C34" t="n">
-        <v>0.04857622079460645</v>
+        <v>0.2536267943437313</v>
       </c>
       <c r="D34" t="n">
-        <v>1.879646771634693</v>
+        <v>1.785292569176653</v>
       </c>
       <c r="E34" t="n">
-        <v>18.89017559559696</v>
+        <v>17.84692613861113</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1778379148850655</v>
+        <v>0.176171061084382</v>
       </c>
       <c r="G34" t="n">
-        <v>6088.936785063382</v>
+        <v>6047.015728101512</v>
       </c>
       <c r="H34" t="n">
-        <v>2.80092515414956</v>
+        <v>0.482439006468168</v>
       </c>
     </row>
     <row r="35">
@@ -1406,25 +1406,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>4.309607434973618</v>
+        <v>5.586867424649219</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0482827097788086</v>
+        <v>0.1172979719198127</v>
       </c>
       <c r="D35" t="n">
-        <v>1.875556277796694</v>
+        <v>1.769248761451763</v>
       </c>
       <c r="E35" t="n">
-        <v>18.87928297737234</v>
+        <v>16.57981883566207</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1775362929985322</v>
+        <v>0.1798207846920471</v>
       </c>
       <c r="G35" t="n">
-        <v>6085.538607351815</v>
+        <v>6004.112792400259</v>
       </c>
       <c r="H35" t="n">
-        <v>2.96535120635054</v>
+        <v>1.70354267915655</v>
       </c>
     </row>
     <row r="36">
@@ -1434,25 +1434,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>4.318000846860696</v>
+        <v>6.438017000355</v>
       </c>
       <c r="C36" t="n">
-        <v>0.04856153126973124</v>
+        <v>0.5433045536349791</v>
       </c>
       <c r="D36" t="n">
-        <v>1.899613826725366</v>
+        <v>1.836668298010581</v>
       </c>
       <c r="E36" t="n">
-        <v>18.90724343693403</v>
+        <v>19.09857053310833</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1781348942705856</v>
+        <v>0.1779623258261087</v>
       </c>
       <c r="G36" t="n">
-        <v>6096.778544930987</v>
+        <v>6097.261897717633</v>
       </c>
       <c r="H36" t="n">
-        <v>2.7671402427447</v>
+        <v>0.243684772323889</v>
       </c>
     </row>
     <row r="37">
@@ -1462,25 +1462,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4.314332536010861</v>
+        <v>6.213176317868378</v>
       </c>
       <c r="C37" t="n">
-        <v>0.04855951557042183</v>
+        <v>0.196314858256237</v>
       </c>
       <c r="D37" t="n">
-        <v>1.874808218217305</v>
+        <v>1.771936171474195</v>
       </c>
       <c r="E37" t="n">
-        <v>18.88411387728195</v>
+        <v>17.31661175790432</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1776548758479423</v>
+        <v>0.1750307420894557</v>
       </c>
       <c r="G37" t="n">
-        <v>6086.555495938645</v>
+        <v>6027.528669236123</v>
       </c>
       <c r="H37" t="n">
-        <v>2.8191999069992</v>
+        <v>0.685659758995095</v>
       </c>
     </row>
     <row r="38">
@@ -1490,25 +1490,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>4.317060912501224</v>
+        <v>6.429332429200743</v>
       </c>
       <c r="C38" t="n">
-        <v>0.04873341638752293</v>
+        <v>0.5184823221979835</v>
       </c>
       <c r="D38" t="n">
-        <v>1.879269228858563</v>
+        <v>1.788987785139537</v>
       </c>
       <c r="E38" t="n">
-        <v>18.89556608427774</v>
+        <v>18.63366831301238</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1779406524608795</v>
+        <v>0.1757969358356896</v>
       </c>
       <c r="G38" t="n">
-        <v>6090.127382183398</v>
+        <v>6071.873568141799</v>
       </c>
       <c r="H38" t="n">
-        <v>2.70519136560424</v>
+        <v>0.253896629350705</v>
       </c>
     </row>
     <row r="39">
@@ -1518,25 +1518,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>4.315827543847522</v>
+        <v>6.035875070975147</v>
       </c>
       <c r="C39" t="n">
-        <v>0.04821373914926645</v>
+        <v>0.181853178733182</v>
       </c>
       <c r="D39" t="n">
-        <v>1.916960358763586</v>
+        <v>1.873810025816597</v>
       </c>
       <c r="E39" t="n">
-        <v>18.91055294365196</v>
+        <v>18.42645352447244</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1783360895693601</v>
+        <v>0.1877980874308162</v>
       </c>
       <c r="G39" t="n">
-        <v>6100.397596886965</v>
+        <v>6086.114628714936</v>
       </c>
       <c r="H39" t="n">
-        <v>2.9390717600481</v>
+        <v>0.636463189887474</v>
       </c>
     </row>
     <row r="40">
@@ -1546,25 +1546,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4.314617548237969</v>
+        <v>5.685271482401577</v>
       </c>
       <c r="C40" t="n">
-        <v>0.04808667601073571</v>
+        <v>0.1730902378714192</v>
       </c>
       <c r="D40" t="n">
-        <v>1.930797175143695</v>
+        <v>1.912983283045603</v>
       </c>
       <c r="E40" t="n">
-        <v>18.92235394203667</v>
+        <v>19.41680624449122</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1781885842935089</v>
+        <v>0.1757726312421413</v>
       </c>
       <c r="G40" t="n">
-        <v>6105.193267923016</v>
+        <v>6121.247355052508</v>
       </c>
       <c r="H40" t="n">
-        <v>2.9881184317662</v>
+        <v>0.566167767296911</v>
       </c>
     </row>
     <row r="41">
@@ -1574,25 +1574,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>4.316978577816745</v>
+        <v>5.889468899557048</v>
       </c>
       <c r="C41" t="n">
-        <v>0.04804621705435706</v>
+        <v>0.2254139782497096</v>
       </c>
       <c r="D41" t="n">
-        <v>1.950355277684002</v>
+        <v>1.966388393415093</v>
       </c>
       <c r="E41" t="n">
-        <v>18.9322562318424</v>
+        <v>19.79465824669349</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1783026523707367</v>
+        <v>0.1746188946662457</v>
       </c>
       <c r="G41" t="n">
-        <v>6110.246860640897</v>
+        <v>6144.767289414603</v>
       </c>
       <c r="H41" t="n">
-        <v>3.00689504124296</v>
+        <v>0.403999266402081</v>
       </c>
     </row>
     <row r="42">
@@ -1602,25 +1602,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>4.314338710557243</v>
+        <v>5.534139757595153</v>
       </c>
       <c r="C42" t="n">
-        <v>0.04787815526641296</v>
+        <v>0.0986780067656996</v>
       </c>
       <c r="D42" t="n">
-        <v>1.943126366969638</v>
+        <v>1.931613667405393</v>
       </c>
       <c r="E42" t="n">
-        <v>18.91582901601941</v>
+        <v>17.24555973113727</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1778799767340922</v>
+        <v>0.1789289244065035</v>
       </c>
       <c r="G42" t="n">
-        <v>6104.639068165677</v>
+        <v>6053.520324135373</v>
       </c>
       <c r="H42" t="n">
-        <v>3.19185179106389</v>
+        <v>2.25290995802152</v>
       </c>
     </row>
     <row r="43">
@@ -1630,25 +1630,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>4.318732359255402</v>
+        <v>6.366850863417246</v>
       </c>
       <c r="C43" t="n">
-        <v>0.04815262889396674</v>
+        <v>0.2264573079506763</v>
       </c>
       <c r="D43" t="n">
-        <v>1.941386736426548</v>
+        <v>1.936135609407577</v>
       </c>
       <c r="E43" t="n">
-        <v>18.92245309426426</v>
+        <v>18.67461146755577</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1781922740164406</v>
+        <v>0.1776984867721602</v>
       </c>
       <c r="G43" t="n">
-        <v>6106.584487614067</v>
+        <v>6103.867204124766</v>
       </c>
       <c r="H43" t="n">
-        <v>2.98484584795819</v>
+        <v>0.493793673194084</v>
       </c>
     </row>
     <row r="44">
@@ -1658,25 +1658,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>4.318892003091754</v>
+        <v>6.51672878654588</v>
       </c>
       <c r="C44" t="n">
-        <v>0.04817406480644117</v>
+        <v>0.1694175738728677</v>
       </c>
       <c r="D44" t="n">
-        <v>1.933135655602376</v>
+        <v>1.908501350737063</v>
       </c>
       <c r="E44" t="n">
-        <v>18.91299927937575</v>
+        <v>17.62890449449095</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1778818441018999</v>
+        <v>0.1774475603919486</v>
       </c>
       <c r="G44" t="n">
-        <v>6102.993945191172</v>
+        <v>6063.976385668259</v>
       </c>
       <c r="H44" t="n">
-        <v>3.00266096567875</v>
+        <v>0.846601866520356</v>
       </c>
     </row>
     <row r="45">
@@ -1686,25 +1686,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>4.32586279080422</v>
+        <v>7.887524237610047</v>
       </c>
       <c r="C45" t="n">
-        <v>0.04858299145262718</v>
+        <v>0.5118474184761856</v>
       </c>
       <c r="D45" t="n">
-        <v>1.922476908495574</v>
+        <v>1.876957298765966</v>
       </c>
       <c r="E45" t="n">
-        <v>18.90241624486943</v>
+        <v>16.75607841414885</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1776440198322104</v>
+        <v>0.1745678728797173</v>
       </c>
       <c r="G45" t="n">
-        <v>6099.032754836193</v>
+        <v>6031.456730257781</v>
       </c>
       <c r="H45" t="n">
-        <v>2.84586445790764</v>
+        <v>0.343343027254512</v>
       </c>
     </row>
     <row r="46">
@@ -1714,25 +1714,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>4.317874493644233</v>
+        <v>6.231230729413833</v>
       </c>
       <c r="C46" t="n">
-        <v>0.04804509884068666</v>
+        <v>0.1432414341316815</v>
       </c>
       <c r="D46" t="n">
-        <v>1.946127852555753</v>
+        <v>1.944631079678807</v>
       </c>
       <c r="E46" t="n">
-        <v>18.92142103736097</v>
+        <v>18.07324918380699</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1779480707026764</v>
+        <v>0.175012598331148</v>
       </c>
       <c r="G46" t="n">
-        <v>6106.640356733904</v>
+        <v>6083.694290926936</v>
       </c>
       <c r="H46" t="n">
-        <v>3.06617863389065</v>
+        <v>0.978619030100202</v>
       </c>
     </row>
     <row r="47">
@@ -1742,25 +1742,25 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>4.31480536266432</v>
+        <v>5.873296658586036</v>
       </c>
       <c r="C47" t="n">
-        <v>0.04806704088602952</v>
+        <v>0.1200785409102536</v>
       </c>
       <c r="D47" t="n">
-        <v>1.924519517519036</v>
+        <v>1.886685450875</v>
       </c>
       <c r="E47" t="n">
-        <v>18.90924232304623</v>
+        <v>17.6212461633587</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1778289370602887</v>
+        <v>0.1776499308754059</v>
       </c>
       <c r="G47" t="n">
-        <v>6100.837443922002</v>
+        <v>6058.531976695896</v>
       </c>
       <c r="H47" t="n">
-        <v>3.05987641138059</v>
+        <v>1.35175726677763</v>
       </c>
     </row>
     <row r="48">
@@ -1770,25 +1770,25 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>4.318531094210758</v>
+        <v>6.368243343512092</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0481588952778151</v>
+        <v>0.2067619012167431</v>
       </c>
       <c r="D48" t="n">
-        <v>1.938053555391607</v>
+        <v>1.926138939211049</v>
       </c>
       <c r="E48" t="n">
-        <v>18.91996083244059</v>
+        <v>18.47924928651937</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1780644912435001</v>
+        <v>0.1750695242232655</v>
       </c>
       <c r="G48" t="n">
-        <v>6105.477874754866</v>
+        <v>6094.692698092215</v>
       </c>
       <c r="H48" t="n">
-        <v>2.98481541753425</v>
+        <v>0.5541151511390729</v>
       </c>
     </row>
     <row r="49">
@@ -1798,25 +1798,25 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>4.319513446739849</v>
+        <v>6.660081963246109</v>
       </c>
       <c r="C49" t="n">
-        <v>0.04825358681011481</v>
+        <v>0.1963436695646882</v>
       </c>
       <c r="D49" t="n">
-        <v>1.927643131217593</v>
+        <v>1.894574555095311</v>
       </c>
       <c r="E49" t="n">
-        <v>18.91007199903764</v>
+        <v>17.5709505202141</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1779315676893439</v>
+        <v>0.1802160104109591</v>
       </c>
       <c r="G49" t="n">
-        <v>6101.627616917327</v>
+        <v>6060.812305217072</v>
       </c>
       <c r="H49" t="n">
-        <v>2.96447987614447</v>
+        <v>0.688138315839865</v>
       </c>
     </row>
     <row r="50">
@@ -1826,25 +1826,25 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>4.318829479729201</v>
+        <v>6.609525200374336</v>
       </c>
       <c r="C50" t="n">
-        <v>0.04828825473037272</v>
+        <v>0.1692116176802113</v>
       </c>
       <c r="D50" t="n">
-        <v>1.916592457790657</v>
+        <v>1.864361252972349</v>
       </c>
       <c r="E50" t="n">
-        <v>18.90214586851435</v>
+        <v>17.09941438115133</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1776125386833933</v>
+        <v>0.1735469788973192</v>
       </c>
       <c r="G50" t="n">
-        <v>6098.005149637033</v>
+        <v>6037.927480918672</v>
       </c>
       <c r="H50" t="n">
-        <v>2.95525717961205</v>
+        <v>0.892253794239713</v>
       </c>
     </row>
     <row r="51">
@@ -1854,25 +1854,25 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>4.319660206573166</v>
+        <v>6.765286796818019</v>
       </c>
       <c r="C51" t="n">
-        <v>0.04866726044596104</v>
+        <v>0.4805600982556379</v>
       </c>
       <c r="D51" t="n">
-        <v>1.891948999505096</v>
+        <v>1.813534647273987</v>
       </c>
       <c r="E51" t="n">
-        <v>18.89760481359885</v>
+        <v>18.16248791655368</v>
       </c>
       <c r="F51" t="n">
-        <v>0.177649667874426</v>
+        <v>0.1643866918878901</v>
       </c>
       <c r="G51" t="n">
-        <v>6092.991100278732</v>
+        <v>6060.717073932897</v>
       </c>
       <c r="H51" t="n">
-        <v>2.7511522655598</v>
+        <v>0.26934036221351</v>
       </c>
     </row>
     <row r="52">
@@ -1882,25 +1882,25 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>4.30215869764898</v>
+        <v>4.908233063139702</v>
       </c>
       <c r="C52" t="n">
-        <v>0.04830714524677576</v>
+        <v>0.1095681292096092</v>
       </c>
       <c r="D52" t="n">
-        <v>1.853971943634193</v>
+        <v>1.733707691508848</v>
       </c>
       <c r="E52" t="n">
-        <v>18.8825513798873</v>
+        <v>18.21487139612145</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1774373064701051</v>
+        <v>0.1679477241071438</v>
       </c>
       <c r="G52" t="n">
-        <v>6081.121085707642</v>
+        <v>6041.358397743472</v>
       </c>
       <c r="H52" t="n">
-        <v>2.85915521860362</v>
+        <v>1.1297740154427</v>
       </c>
     </row>
     <row r="53">
@@ -1910,25 +1910,25 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>4.300295044896654</v>
+        <v>4.64411992727627</v>
       </c>
       <c r="C53" t="n">
-        <v>0.04811133349997461</v>
+        <v>0.08917534407797348</v>
       </c>
       <c r="D53" t="n">
-        <v>1.85233203132148</v>
+        <v>1.717114624882077</v>
       </c>
       <c r="E53" t="n">
-        <v>18.86184617954807</v>
+        <v>15.79508568315062</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1770281284687489</v>
+        <v>0.1741404534392529</v>
       </c>
       <c r="G53" t="n">
-        <v>6076.467108349727</v>
+        <v>5966.397055694134</v>
       </c>
       <c r="H53" t="n">
-        <v>3.04975725167614</v>
+        <v>2.82632087550978</v>
       </c>
     </row>
     <row r="54">
@@ -1938,25 +1938,25 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>4.309067643893504</v>
+        <v>5.210695110051822</v>
       </c>
       <c r="C54" t="n">
-        <v>0.04804909557989091</v>
+        <v>0.1046032981374887</v>
       </c>
       <c r="D54" t="n">
-        <v>1.902024874801772</v>
+        <v>1.83523196046218</v>
       </c>
       <c r="E54" t="n">
-        <v>18.90163469878093</v>
+        <v>17.98959087122192</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1778861519458167</v>
+        <v>0.1780361742298253</v>
       </c>
       <c r="G54" t="n">
-        <v>6095.53137572495</v>
+        <v>6059.525960337097</v>
       </c>
       <c r="H54" t="n">
-        <v>3.04168721770432</v>
+        <v>1.54072088427683</v>
       </c>
     </row>
     <row r="55">
@@ -1966,25 +1966,25 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>4.309340560941406</v>
+        <v>4.89536183407304</v>
       </c>
       <c r="C55" t="n">
-        <v>0.04784711304559659</v>
+        <v>0.08687514793414992</v>
       </c>
       <c r="D55" t="n">
-        <v>1.912521624585884</v>
+        <v>1.847005955339958</v>
       </c>
       <c r="E55" t="n">
-        <v>18.89283295962303</v>
+        <v>15.82897588528281</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1775954314088453</v>
+        <v>0.1817107616307096</v>
       </c>
       <c r="G55" t="n">
-        <v>6094.838371483604</v>
+        <v>5993.345199652998</v>
       </c>
       <c r="H55" t="n">
-        <v>3.22914241828101</v>
+        <v>3.40626283873203</v>
       </c>
     </row>
     <row r="56">
@@ -1994,25 +1994,25 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>4.30954702884726</v>
+        <v>5.393330852504438</v>
       </c>
       <c r="C56" t="n">
-        <v>0.04813117150862523</v>
+        <v>0.1000715312587496</v>
       </c>
       <c r="D56" t="n">
-        <v>1.880240162337055</v>
+        <v>1.771654048315189</v>
       </c>
       <c r="E56" t="n">
-        <v>18.87229403984621</v>
+        <v>15.30304308900779</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1772719103247287</v>
+        <v>0.1798052118716265</v>
       </c>
       <c r="G56" t="n">
-        <v>6084.793652619596</v>
+        <v>5964.328223983177</v>
       </c>
       <c r="H56" t="n">
-        <v>3.0712074312182</v>
+        <v>2.76051215748153</v>
       </c>
     </row>
     <row r="57">
@@ -2022,25 +2022,25 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>4.309093769312517</v>
+        <v>5.579199822137086</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0483206292530866</v>
+        <v>0.1201829562716148</v>
       </c>
       <c r="D57" t="n">
-        <v>1.872620695310892</v>
+        <v>1.764475480836174</v>
       </c>
       <c r="E57" t="n">
-        <v>18.88016845378957</v>
+        <v>16.88418180189104</v>
       </c>
       <c r="F57" t="n">
-        <v>0.177371442522359</v>
+        <v>0.1726171029463098</v>
       </c>
       <c r="G57" t="n">
-        <v>6085.049568514924</v>
+        <v>6010.485359390616</v>
       </c>
       <c r="H57" t="n">
-        <v>2.94184903263102</v>
+        <v>1.4729301581179</v>
       </c>
     </row>
     <row r="58">
@@ -2050,25 +2050,25 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>4.30812854458965</v>
+        <v>5.06248144681811</v>
       </c>
       <c r="C58" t="n">
-        <v>0.04798826257884983</v>
+        <v>0.09551117708753078</v>
       </c>
       <c r="D58" t="n">
-        <v>1.897312891937682</v>
+        <v>1.817781926329466</v>
       </c>
       <c r="E58" t="n">
-        <v>18.89184942804965</v>
+        <v>16.83515571169104</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1775903844882959</v>
+        <v>0.1785312566509784</v>
       </c>
       <c r="G58" t="n">
-        <v>6092.323399037758</v>
+        <v>6019.80232382208</v>
       </c>
       <c r="H58" t="n">
-        <v>3.10708316978068</v>
+        <v>2.45099836685048</v>
       </c>
     </row>
     <row r="59">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>4.307073143672167</v>
+        <v>4.649874610535443</v>
       </c>
       <c r="C59" t="n">
-        <v>0.04782652550369374</v>
+        <v>0.08501224172216189</v>
       </c>
       <c r="D59" t="n">
-        <v>1.907495163012406</v>
+        <v>1.837844221413407</v>
       </c>
       <c r="E59" t="n">
-        <v>18.89345883770316</v>
+        <v>16.30763996806368</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1775377359703642</v>
+        <v>0.1779900970345534</v>
       </c>
       <c r="G59" t="n">
-        <v>6094.227364772927</v>
+        <v>6005.904929120435</v>
       </c>
       <c r="H59" t="n">
-        <v>3.2250386978615</v>
+        <v>3.33503593505479</v>
       </c>
     </row>
     <row r="60">
@@ -2106,25 +2106,25 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>4.307409668711219</v>
+        <v>4.51346967615638</v>
       </c>
       <c r="C60" t="n">
-        <v>0.04780912323294883</v>
+        <v>0.09102820791930573</v>
       </c>
       <c r="D60" t="n">
-        <v>1.928437538139838</v>
+        <v>1.91141999301297</v>
       </c>
       <c r="E60" t="n">
-        <v>18.92701182955532</v>
+        <v>20.30653463431983</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1780620553660582</v>
+        <v>0.1668593327851124</v>
       </c>
       <c r="G60" t="n">
-        <v>6105.83036160012</v>
+        <v>6144.58975850019</v>
       </c>
       <c r="H60" t="n">
-        <v>3.08854774821652</v>
+        <v>1.29432193211687</v>
       </c>
     </row>
     <row r="61">
@@ -2134,25 +2134,25 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>4.309769809449526</v>
+        <v>5.383291498821448</v>
       </c>
       <c r="C61" t="n">
-        <v>0.04809833737229931</v>
+        <v>0.105744262841761</v>
       </c>
       <c r="D61" t="n">
-        <v>1.894148904559626</v>
+        <v>1.811038900997404</v>
       </c>
       <c r="E61" t="n">
-        <v>18.89082954687454</v>
+        <v>16.92342065300386</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1774505175898727</v>
+        <v>0.1735149523655533</v>
       </c>
       <c r="G61" t="n">
-        <v>6091.535191494914</v>
+        <v>6020.435404708928</v>
       </c>
       <c r="H61" t="n">
-        <v>3.05064170510412</v>
+        <v>1.9886284705802</v>
       </c>
     </row>
     <row r="62">
@@ -2162,25 +2162,25 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>4.311977289777048</v>
+        <v>5.612531742016834</v>
       </c>
       <c r="C62" t="n">
-        <v>0.04816159628901979</v>
+        <v>0.1310413624932606</v>
       </c>
       <c r="D62" t="n">
-        <v>1.904487456960327</v>
+        <v>1.841978832744157</v>
       </c>
       <c r="E62" t="n">
-        <v>18.90412364168389</v>
+        <v>18.22794413174087</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1777021419876592</v>
+        <v>0.1669742860055162</v>
       </c>
       <c r="G62" t="n">
-        <v>6096.508934832045</v>
+        <v>6066.716369303127</v>
       </c>
       <c r="H62" t="n">
-        <v>2.98163532735758</v>
+        <v>1.03069799109389</v>
       </c>
     </row>
     <row r="63">
@@ -2190,25 +2190,25 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>4.313954437597912</v>
+        <v>5.892291255579811</v>
       </c>
       <c r="C63" t="n">
-        <v>0.04816767937036522</v>
+        <v>0.1276598470797967</v>
       </c>
       <c r="D63" t="n">
-        <v>1.90871776237628</v>
+        <v>1.847422666383851</v>
       </c>
       <c r="E63" t="n">
-        <v>18.90061673092483</v>
+        <v>17.4042474796663</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1776965435006257</v>
+        <v>0.1759428335280874</v>
       </c>
       <c r="G63" t="n">
-        <v>6096.417136846568</v>
+        <v>6044.081875227344</v>
       </c>
       <c r="H63" t="n">
-        <v>3.01098857730716</v>
+        <v>1.29592783770244</v>
       </c>
     </row>
     <row r="64">
@@ -2218,25 +2218,25 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>4.311370259277508</v>
+        <v>5.91108164579286</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0484622509616307</v>
+        <v>0.1435824201476874</v>
       </c>
       <c r="D64" t="n">
-        <v>1.869961997742682</v>
+        <v>1.759029906833817</v>
       </c>
       <c r="E64" t="n">
-        <v>18.8791771097134</v>
+        <v>16.94028264451606</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1771409885599008</v>
+        <v>0.1638753723442331</v>
       </c>
       <c r="G64" t="n">
-        <v>6084.240097857709</v>
+        <v>6009.746640994555</v>
       </c>
       <c r="H64" t="n">
-        <v>2.88089029318723</v>
+        <v>1.1059079800316</v>
       </c>
     </row>
     <row r="65">
@@ -2246,25 +2246,25 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>4.314669681367405</v>
+        <v>5.944344904465915</v>
       </c>
       <c r="C65" t="n">
-        <v>0.04813583043250848</v>
+        <v>0.1244949412998769</v>
       </c>
       <c r="D65" t="n">
-        <v>1.913372028628269</v>
+        <v>1.857373649429926</v>
       </c>
       <c r="E65" t="n">
-        <v>18.90189716473033</v>
+        <v>17.26217754170196</v>
       </c>
       <c r="F65" t="n">
-        <v>0.177583243478573</v>
+        <v>0.1724675399421875</v>
       </c>
       <c r="G65" t="n">
-        <v>6097.369147823023</v>
+        <v>6040.423849393663</v>
       </c>
       <c r="H65" t="n">
-        <v>3.02688663840198</v>
+        <v>1.40842795603974</v>
       </c>
     </row>
     <row r="66">
@@ -2274,25 +2274,25 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>4.30687265188262</v>
+        <v>5.406876897025566</v>
       </c>
       <c r="C66" t="n">
-        <v>0.04833921318987992</v>
+        <v>0.111106401251348</v>
       </c>
       <c r="D66" t="n">
-        <v>1.858062297584544</v>
+        <v>1.730509562419593</v>
       </c>
       <c r="E66" t="n">
-        <v>18.86721399107022</v>
+        <v>16.13800146790533</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1770939915228216</v>
+        <v>0.1720065935741704</v>
       </c>
       <c r="G66" t="n">
-        <v>6079.037417384673</v>
+        <v>5980.421629730626</v>
       </c>
       <c r="H66" t="n">
-        <v>2.9421400196275</v>
+        <v>1.95706809563676</v>
       </c>
     </row>
     <row r="67">
@@ -2302,25 +2302,25 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>4.311460636580973</v>
+        <v>5.387897781569546</v>
       </c>
       <c r="C67" t="n">
-        <v>0.04798848924265313</v>
+        <v>0.1017436825924954</v>
       </c>
       <c r="D67" t="n">
-        <v>1.912458587290029</v>
+        <v>1.852966708905257</v>
       </c>
       <c r="E67" t="n">
-        <v>18.89945095920738</v>
+        <v>16.90789609505939</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1775244296217251</v>
+        <v>0.1731089121958777</v>
       </c>
       <c r="G67" t="n">
-        <v>6096.517745841732</v>
+        <v>6027.463649894803</v>
       </c>
       <c r="H67" t="n">
-        <v>3.11887973352653</v>
+        <v>2.26499081657036</v>
       </c>
     </row>
     <row r="68">
@@ -2330,25 +2330,25 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>4.310689202414983</v>
+        <v>5.541184482194014</v>
       </c>
       <c r="C68" t="n">
-        <v>0.04815814794653454</v>
+        <v>0.1131463791317199</v>
       </c>
       <c r="D68" t="n">
-        <v>1.892288797848064</v>
+        <v>1.807639275029369</v>
       </c>
       <c r="E68" t="n">
-        <v>18.89091569936786</v>
+        <v>17.07274956931163</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1773678352734945</v>
+        <v>0.1691689796903728</v>
       </c>
       <c r="G68" t="n">
-        <v>6091.215875380434</v>
+        <v>6023.752082772911</v>
       </c>
       <c r="H68" t="n">
-        <v>3.01052389829477</v>
+        <v>1.70944413004665</v>
       </c>
     </row>
     <row r="69">
@@ -2358,25 +2358,25 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>4.3130307056818</v>
+        <v>5.840465123385069</v>
       </c>
       <c r="C69" t="n">
-        <v>0.04819547632187694</v>
+        <v>0.1208566645255293</v>
       </c>
       <c r="D69" t="n">
-        <v>1.897750790614657</v>
+        <v>1.81747557274412</v>
       </c>
       <c r="E69" t="n">
-        <v>18.89050022514083</v>
+        <v>16.64611497097407</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1773299525799755</v>
+        <v>0.169497442195664</v>
       </c>
       <c r="G69" t="n">
-        <v>6092.09077175405</v>
+        <v>6012.806628967573</v>
       </c>
       <c r="H69" t="n">
-        <v>3.02198712640227</v>
+        <v>1.70958032714807</v>
       </c>
     </row>
     <row r="70">
@@ -2386,25 +2386,25 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>4.316256793154202</v>
+        <v>6.059808471706546</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0480664664406839</v>
+        <v>0.1288499868418137</v>
       </c>
       <c r="D70" t="n">
-        <v>1.931496120142205</v>
+        <v>1.903620583954845</v>
       </c>
       <c r="E70" t="n">
-        <v>18.91205471218113</v>
+        <v>17.56547686054031</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1777637108813006</v>
+        <v>0.1738325082109768</v>
       </c>
       <c r="G70" t="n">
-        <v>6102.419720736771</v>
+        <v>6059.094503056947</v>
       </c>
       <c r="H70" t="n">
-        <v>3.06682307431582</v>
+        <v>1.32492540539343</v>
       </c>
     </row>
     <row r="71">
@@ -2414,25 +2414,25 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>4.31179082825346</v>
+        <v>5.25221751045986</v>
       </c>
       <c r="C71" t="n">
-        <v>0.04793850589839469</v>
+        <v>0.1105119901310497</v>
       </c>
       <c r="D71" t="n">
-        <v>1.931113797662628</v>
+        <v>1.911274039341588</v>
       </c>
       <c r="E71" t="n">
-        <v>18.92101364481493</v>
+        <v>19.11920840086643</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1778844341901679</v>
+        <v>0.1653936460562476</v>
       </c>
       <c r="G71" t="n">
-        <v>6104.637833712414</v>
+        <v>6107.263021714009</v>
       </c>
       <c r="H71" t="n">
-        <v>3.07957715475477</v>
+        <v>1.19417522843782</v>
       </c>
     </row>
     <row r="72">
@@ -2442,25 +2442,25 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>4.31611887505129</v>
+        <v>5.918306553247028</v>
       </c>
       <c r="C72" t="n">
-        <v>0.04802887869509437</v>
+        <v>0.1435733877129874</v>
       </c>
       <c r="D72" t="n">
-        <v>1.941614852506205</v>
+        <v>1.936124924136912</v>
       </c>
       <c r="E72" t="n">
-        <v>18.92276445333979</v>
+        <v>18.67752637736877</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1779656592481932</v>
+        <v>0.1688371429162834</v>
       </c>
       <c r="G72" t="n">
-        <v>6106.504969220665</v>
+        <v>6100.509090577614</v>
       </c>
       <c r="H72" t="n">
-        <v>3.05508121913967</v>
+        <v>0.877652798079774</v>
       </c>
     </row>
     <row r="73">
@@ -2470,25 +2470,25 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>4.315117541196949</v>
+        <v>6.162255873326834</v>
       </c>
       <c r="C73" t="n">
-        <v>0.04809880677181472</v>
+        <v>0.1017074676351717</v>
       </c>
       <c r="D73" t="n">
-        <v>1.897053829236229</v>
+        <v>1.805443248782163</v>
       </c>
       <c r="E73" t="n">
-        <v>18.87710976419931</v>
+        <v>14.73340137360466</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1774471680508712</v>
+        <v>0.1851422043964505</v>
       </c>
       <c r="G73" t="n">
-        <v>6088.898546344517</v>
+        <v>5954.368501595543</v>
       </c>
       <c r="H73" t="n">
-        <v>3.06269088416532</v>
+        <v>2.53859005081516</v>
       </c>
     </row>
     <row r="74">
@@ -2498,25 +2498,25 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>4.316514383011529</v>
+        <v>6.280112049843131</v>
       </c>
       <c r="C74" t="n">
-        <v>0.04825932141395992</v>
+        <v>0.1490639364011026</v>
       </c>
       <c r="D74" t="n">
-        <v>1.908969206595425</v>
+        <v>1.846988828863037</v>
       </c>
       <c r="E74" t="n">
-        <v>18.89953403899847</v>
+        <v>17.23636957085153</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1775803109493239</v>
+        <v>0.1729352822224614</v>
       </c>
       <c r="G74" t="n">
-        <v>6096.199011145101</v>
+        <v>6038.488959487236</v>
       </c>
       <c r="H74" t="n">
-        <v>2.96141714483515</v>
+        <v>1.03689269426139</v>
       </c>
     </row>
     <row r="75">
@@ -2526,25 +2526,25 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>4.318082637001072</v>
+        <v>6.302489539023107</v>
       </c>
       <c r="C75" t="n">
-        <v>0.04800888705574485</v>
+        <v>0.1137228248899666</v>
       </c>
       <c r="D75" t="n">
-        <v>1.938584298114097</v>
+        <v>1.914918774151005</v>
       </c>
       <c r="E75" t="n">
-        <v>18.90860680890401</v>
+        <v>16.36554533754741</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1778601028119662</v>
+        <v>0.1840812885298596</v>
       </c>
       <c r="G75" t="n">
-        <v>6102.290237377664</v>
+        <v>6024.377382808817</v>
       </c>
       <c r="H75" t="n">
-        <v>3.11711257038767</v>
+        <v>1.86670765698637</v>
       </c>
     </row>
     <row r="76">
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>4.311616681977957</v>
+        <v>5.432197244629055</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0480405993623004</v>
+        <v>0.1109977954383122</v>
       </c>
       <c r="D76" t="n">
-        <v>1.913528987549762</v>
+        <v>1.863044640842336</v>
       </c>
       <c r="E76" t="n">
-        <v>18.90807233295352</v>
+        <v>18.21420603698351</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1777164835177722</v>
+        <v>0.1678307490569373</v>
       </c>
       <c r="G76" t="n">
-        <v>6098.87638472975</v>
+        <v>6070.090919582104</v>
       </c>
       <c r="H76" t="n">
-        <v>3.03642634897617</v>
+        <v>1.32759147850257</v>
       </c>
     </row>
     <row r="77">
@@ -2582,25 +2582,25 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>4.31582856612436</v>
+        <v>5.853121891072253</v>
       </c>
       <c r="C77" t="n">
-        <v>0.04795083860757024</v>
+        <v>0.1079740039347124</v>
       </c>
       <c r="D77" t="n">
-        <v>1.941810432418584</v>
+        <v>1.929165568661904</v>
       </c>
       <c r="E77" t="n">
-        <v>18.91592671164251</v>
+        <v>17.39265443338273</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1778924232998118</v>
+        <v>0.178989468153019</v>
       </c>
       <c r="G77" t="n">
-        <v>6104.596477476362</v>
+        <v>6058.541134348039</v>
       </c>
       <c r="H77" t="n">
-        <v>3.13498044491031</v>
+        <v>1.7435560880822</v>
       </c>
     </row>
     <row r="78">
@@ -2610,25 +2610,25 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>4.314792344161013</v>
+        <v>5.55960774511655</v>
       </c>
       <c r="C78" t="n">
-        <v>0.04785898184659318</v>
+        <v>0.09639082822645416</v>
       </c>
       <c r="D78" t="n">
-        <v>1.947094373061691</v>
+        <v>1.941258713564122</v>
       </c>
       <c r="E78" t="n">
-        <v>18.9169852548744</v>
+        <v>17.11257591924873</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1778912971411587</v>
+        <v>0.1794417823379876</v>
       </c>
       <c r="G78" t="n">
-        <v>6105.323521348159</v>
+        <v>6050.65171528069</v>
       </c>
       <c r="H78" t="n">
-        <v>3.20649325409928</v>
+        <v>2.35892933416656</v>
       </c>
     </row>
     <row r="79">
@@ -2638,25 +2638,25 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>4.316676346406674</v>
+        <v>5.997368359686565</v>
       </c>
       <c r="C79" t="n">
-        <v>0.04797649284270009</v>
+        <v>0.1151801699238593</v>
       </c>
       <c r="D79" t="n">
-        <v>1.944659928942206</v>
+        <v>1.938410943873193</v>
       </c>
       <c r="E79" t="n">
-        <v>18.91844951454228</v>
+        <v>17.62789224324432</v>
       </c>
       <c r="F79" t="n">
-        <v>0.178065601553428</v>
+        <v>0.1837733095961514</v>
       </c>
       <c r="G79" t="n">
-        <v>6105.692886088965</v>
+        <v>6069.830819526302</v>
       </c>
       <c r="H79" t="n">
-        <v>3.11049143793921</v>
+        <v>1.44313970667812</v>
       </c>
     </row>
     <row r="80">
@@ -2666,25 +2666,25 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>4.325765105380458</v>
+        <v>7.780462305119549</v>
       </c>
       <c r="C80" t="n">
-        <v>0.04833657166945877</v>
+        <v>0.2382918467316515</v>
       </c>
       <c r="D80" t="n">
-        <v>1.928641202997231</v>
+        <v>1.888055351790549</v>
       </c>
       <c r="E80" t="n">
-        <v>18.90030044440865</v>
+        <v>15.86425427803966</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1781300620517827</v>
+        <v>0.1949149643137887</v>
       </c>
       <c r="G80" t="n">
-        <v>6099.416302510062</v>
+        <v>6011.095928186558</v>
       </c>
       <c r="H80" t="n">
-        <v>2.87359330126455</v>
+        <v>0.634292434969693</v>
       </c>
     </row>
     <row r="81">
@@ -2694,25 +2694,25 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>4.316136394765374</v>
+        <v>5.681445289425928</v>
       </c>
       <c r="C81" t="n">
-        <v>0.04836596808417697</v>
+        <v>0.7848238038549252</v>
       </c>
       <c r="D81" t="n">
-        <v>1.920512386817882</v>
+        <v>1.899459703311961</v>
       </c>
       <c r="E81" t="n">
-        <v>18.93084646887003</v>
+        <v>21.57583286439465</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1780063155396872</v>
+        <v>0.1601431033397803</v>
       </c>
       <c r="G81" t="n">
-        <v>6105.932914388065</v>
+        <v>6183.337902163437</v>
       </c>
       <c r="H81" t="n">
-        <v>2.76701762340447</v>
+        <v>0.164429029586699</v>
       </c>
     </row>
     <row r="82">
@@ -2722,25 +2722,25 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>4.317177630421306</v>
+        <v>6.618059549748228</v>
       </c>
       <c r="C82" t="n">
-        <v>0.04894178638830438</v>
+        <v>0.3679813930966035</v>
       </c>
       <c r="D82" t="n">
-        <v>1.857041046594113</v>
+        <v>1.735205271504902</v>
       </c>
       <c r="E82" t="n">
-        <v>18.8752316567805</v>
+        <v>17.27441684599689</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1773889913599788</v>
+        <v>0.1668016101619972</v>
       </c>
       <c r="G82" t="n">
-        <v>6080.718378970587</v>
+        <v>6017.373733598156</v>
       </c>
       <c r="H82" t="n">
-        <v>2.66516444154591</v>
+        <v>0.335451087383154</v>
       </c>
     </row>
     <row r="83">
@@ -2750,25 +2750,25 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>4.305687208594041</v>
+        <v>4.914885998469559</v>
       </c>
       <c r="C83" t="n">
-        <v>0.04812379155650083</v>
+        <v>0.1074666565309073</v>
       </c>
       <c r="D83" t="n">
-        <v>1.883334999256362</v>
+        <v>1.798675927475286</v>
       </c>
       <c r="E83" t="n">
-        <v>18.90021325006906</v>
+        <v>18.92324552113068</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1778510508886149</v>
+        <v>0.174459106385203</v>
       </c>
       <c r="G83" t="n">
-        <v>6091.65580431139</v>
+        <v>6079.075590984725</v>
       </c>
       <c r="H83" t="n">
-        <v>2.92957062802626</v>
+        <v>1.05368820726138</v>
       </c>
     </row>
     <row r="84">
@@ -2778,25 +2778,25 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>4.309765995249288</v>
+        <v>4.952084909368536</v>
       </c>
       <c r="C84" t="n">
-        <v>0.04786742774055947</v>
+        <v>0.09207444176289141</v>
       </c>
       <c r="D84" t="n">
-        <v>1.926503776122988</v>
+        <v>1.898140068606128</v>
       </c>
       <c r="E84" t="n">
-        <v>18.91739724731497</v>
+        <v>18.80816518403243</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1779898174559174</v>
+        <v>0.1752694461340299</v>
       </c>
       <c r="G84" t="n">
-        <v>6103.100177003801</v>
+        <v>6096.072045337338</v>
       </c>
       <c r="H84" t="n">
-        <v>3.11197923586253</v>
+        <v>1.64419059645987</v>
       </c>
     </row>
     <row r="85">
@@ -2806,25 +2806,25 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>4.312366232022673</v>
+        <v>5.487010501253848</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0479863812159731</v>
+        <v>0.1001490546151606</v>
       </c>
       <c r="D85" t="n">
-        <v>1.918050951951487</v>
+        <v>1.868671366428914</v>
       </c>
       <c r="E85" t="n">
-        <v>18.90391352862823</v>
+        <v>17.21220966865213</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1778737941194497</v>
+        <v>0.1835186137028391</v>
       </c>
       <c r="G85" t="n">
-        <v>6098.596295760303</v>
+        <v>6043.008050084022</v>
       </c>
       <c r="H85" t="n">
-        <v>3.10086789806193</v>
+        <v>1.94886684149116</v>
       </c>
     </row>
     <row r="86">
@@ -2834,25 +2834,25 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>4.313848311523753</v>
+        <v>5.588317124192102</v>
       </c>
       <c r="C86" t="n">
-        <v>0.04792893233896665</v>
+        <v>0.1064080924483993</v>
       </c>
       <c r="D86" t="n">
-        <v>1.943075235205927</v>
+        <v>1.934584371121715</v>
       </c>
       <c r="E86" t="n">
-        <v>18.91861132410456</v>
+        <v>17.76590626645094</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1779242721043241</v>
+        <v>0.1779414204512528</v>
       </c>
       <c r="G86" t="n">
-        <v>6105.436254690549</v>
+        <v>6070.97626734936</v>
       </c>
       <c r="H86" t="n">
-        <v>3.18485499819291</v>
+        <v>1.75651033654642</v>
       </c>
     </row>
     <row r="87">
@@ -2862,25 +2862,25 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>4.317070106423731</v>
+        <v>6.101814950428307</v>
       </c>
       <c r="C87" t="n">
-        <v>0.04809982903014722</v>
+        <v>0.1620924693289944</v>
       </c>
       <c r="D87" t="n">
-        <v>1.937495406770104</v>
+        <v>1.925047564880922</v>
       </c>
       <c r="E87" t="n">
-        <v>18.92024732154586</v>
+        <v>18.55806049192375</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1780576915230805</v>
+        <v>0.1748320284550755</v>
       </c>
       <c r="G87" t="n">
-        <v>6105.446570172817</v>
+        <v>6096.349212148779</v>
       </c>
       <c r="H87" t="n">
-        <v>3.01291793187276</v>
+        <v>0.69212083922044</v>
       </c>
     </row>
     <row r="88">
@@ -2890,25 +2890,25 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>4.309892618904994</v>
+        <v>4.905188851304977</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0478854997860973</v>
+        <v>0.09906638484946365</v>
       </c>
       <c r="D88" t="n">
-        <v>1.929137962303085</v>
+        <v>1.9099908747531</v>
       </c>
       <c r="E88" t="n">
-        <v>18.9238463864762</v>
+        <v>19.7358685842528</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1780248275348744</v>
+        <v>0.1692091322461901</v>
       </c>
       <c r="G88" t="n">
-        <v>6105.145022949361</v>
+        <v>6126.994635280714</v>
       </c>
       <c r="H88" t="n">
-        <v>3.06641665111486</v>
+        <v>1.13043811933962</v>
       </c>
     </row>
     <row r="89">
@@ -2918,25 +2918,25 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>4.315913737281967</v>
+        <v>6.057349503831128</v>
       </c>
       <c r="C89" t="n">
-        <v>0.04814910158727207</v>
+        <v>0.1359324418832985</v>
       </c>
       <c r="D89" t="n">
-        <v>1.920660372420774</v>
+        <v>1.878810162856271</v>
       </c>
       <c r="E89" t="n">
-        <v>18.90800648855225</v>
+        <v>17.7316582799611</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1782751394466628</v>
+        <v>0.1905904843806925</v>
       </c>
       <c r="G89" t="n">
-        <v>6100.263670649064</v>
+        <v>6065.625258318158</v>
       </c>
       <c r="H89" t="n">
-        <v>2.99647967494562</v>
+        <v>0.990658144965419</v>
       </c>
     </row>
     <row r="90">
@@ -2946,25 +2946,25 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>4.314154373516121</v>
+        <v>5.850725764551724</v>
       </c>
       <c r="C90" t="n">
-        <v>0.04812146734511279</v>
+        <v>0.116374703240855</v>
       </c>
       <c r="D90" t="n">
-        <v>1.912315679353336</v>
+        <v>1.856172897297511</v>
       </c>
       <c r="E90" t="n">
-        <v>18.90181494920877</v>
+        <v>17.33227565861006</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1780769308852951</v>
+        <v>0.1887060475872891</v>
       </c>
       <c r="G90" t="n">
-        <v>6097.420803357904</v>
+        <v>6047.25813505007</v>
       </c>
       <c r="H90" t="n">
-        <v>3.01699959786845</v>
+        <v>1.34579613414261</v>
       </c>
     </row>
     <row r="91">
@@ -2974,25 +2974,25 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>4.315951968588699</v>
+        <v>5.995306889920911</v>
       </c>
       <c r="C91" t="n">
-        <v>0.04806355724917884</v>
+        <v>0.1251247428875352</v>
       </c>
       <c r="D91" t="n">
-        <v>1.931733376953558</v>
+        <v>1.906016745503417</v>
       </c>
       <c r="E91" t="n">
-        <v>18.91440736481815</v>
+        <v>17.95196492588654</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1775746285685569</v>
+        <v>0.1648023031442848</v>
       </c>
       <c r="G91" t="n">
-        <v>6102.971505774376</v>
+        <v>6069.230311518073</v>
       </c>
       <c r="H91" t="n">
-        <v>3.05030676157367</v>
+        <v>1.10914711639521</v>
       </c>
     </row>
     <row r="92">
@@ -3002,25 +3002,25 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>4.316844759777302</v>
+        <v>6.261264706756933</v>
       </c>
       <c r="C92" t="n">
-        <v>0.04826053568028727</v>
+        <v>0.1607411014477662</v>
       </c>
       <c r="D92" t="n">
-        <v>1.912358200257542</v>
+        <v>1.858089830300556</v>
       </c>
       <c r="E92" t="n">
-        <v>18.9039573307119</v>
+        <v>17.69534276306317</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1779184930817547</v>
+        <v>0.1803526912130483</v>
       </c>
       <c r="G92" t="n">
-        <v>6097.939788216167</v>
+        <v>6057.451790300384</v>
       </c>
       <c r="H92" t="n">
-        <v>2.9357614761991</v>
+        <v>0.769763425628597</v>
       </c>
     </row>
     <row r="93">
@@ -3030,25 +3030,25 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>4.314477508874819</v>
+        <v>5.785466931834518</v>
       </c>
       <c r="C93" t="n">
-        <v>0.04801858435792673</v>
+        <v>0.1065026555823619</v>
       </c>
       <c r="D93" t="n">
-        <v>1.925187919161323</v>
+        <v>1.885993004308444</v>
       </c>
       <c r="E93" t="n">
-        <v>18.90720907024091</v>
+        <v>17.21957331118272</v>
       </c>
       <c r="F93" t="n">
-        <v>0.177805926893546</v>
+        <v>0.1803822833661441</v>
       </c>
       <c r="G93" t="n">
-        <v>6100.374706007342</v>
+        <v>6045.63485241659</v>
       </c>
       <c r="H93" t="n">
-        <v>3.09031413970713</v>
+        <v>1.67897698673191</v>
       </c>
     </row>
     <row r="94">
@@ -3058,25 +3058,25 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>4.317938513113859</v>
+        <v>6.309086852035505</v>
       </c>
       <c r="C94" t="n">
-        <v>0.04808417681427955</v>
+        <v>0.1304663143149989</v>
       </c>
       <c r="D94" t="n">
-        <v>1.937098631118854</v>
+        <v>1.91744090817603</v>
       </c>
       <c r="E94" t="n">
-        <v>18.913892849756</v>
+        <v>17.44870040220705</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1778665468526729</v>
+        <v>0.1785443377755374</v>
       </c>
       <c r="G94" t="n">
-        <v>6103.624838955738</v>
+        <v>6059.067474995259</v>
       </c>
       <c r="H94" t="n">
-        <v>3.05255808658552</v>
+        <v>1.14413610775781</v>
       </c>
     </row>
     <row r="95">
@@ -3086,25 +3086,25 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>4.314042749853257</v>
+        <v>5.576357413062892</v>
       </c>
       <c r="C95" t="n">
-        <v>0.04791092328678541</v>
+        <v>0.0937868674059374</v>
       </c>
       <c r="D95" t="n">
-        <v>1.928872923659612</v>
+        <v>1.889008431950652</v>
       </c>
       <c r="E95" t="n">
-        <v>18.90287423973457</v>
+        <v>16.16663729205166</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1778214148833734</v>
+        <v>0.185655319813629</v>
       </c>
       <c r="G95" t="n">
-        <v>6099.628237223082</v>
+        <v>6012.993428237526</v>
       </c>
       <c r="H95" t="n">
-        <v>3.18023263128535</v>
+        <v>2.65537731794338</v>
       </c>
     </row>
     <row r="96">
@@ -3114,25 +3114,25 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>4.316735018916781</v>
+        <v>6.091105999376959</v>
       </c>
       <c r="C96" t="n">
-        <v>0.04803586531706728</v>
+        <v>0.1161125613237909</v>
       </c>
       <c r="D96" t="n">
-        <v>1.935621199769598</v>
+        <v>1.913216489904304</v>
       </c>
       <c r="E96" t="n">
-        <v>18.91274445507637</v>
+        <v>17.35342549151136</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1779400823352268</v>
+        <v>0.1825274333151018</v>
       </c>
       <c r="G96" t="n">
-        <v>6103.159838502602</v>
+        <v>6055.986265319101</v>
       </c>
       <c r="H96" t="n">
-        <v>3.07892060552859</v>
+        <v>1.38361891589229</v>
       </c>
     </row>
     <row r="97">
@@ -3142,25 +3142,25 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>4.350339682833082</v>
+        <v>12.76692329539249</v>
       </c>
       <c r="C97" t="n">
-        <v>0.04993764484648454</v>
+        <v>4.296133239409884</v>
       </c>
       <c r="D97" t="n">
-        <v>1.917474918885109</v>
+        <v>1.861951176417147</v>
       </c>
       <c r="E97" t="n">
-        <v>18.89517930055365</v>
+        <v>16.21806117615201</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1773925090850732</v>
+        <v>0.1737091692569133</v>
       </c>
       <c r="G97" t="n">
-        <v>6097.06237871321</v>
+        <v>6013.172888057523</v>
       </c>
       <c r="H97" t="n">
-        <v>2.24096794060763</v>
+        <v>0.180732904470383</v>
       </c>
     </row>
     <row r="98">
@@ -3170,25 +3170,25 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>4.318913445452455</v>
+        <v>6.521912464369739</v>
       </c>
       <c r="C98" t="n">
-        <v>0.04820999134762821</v>
+        <v>0.1661590795344792</v>
       </c>
       <c r="D98" t="n">
-        <v>1.927710584917869</v>
+        <v>1.894580983346871</v>
       </c>
       <c r="E98" t="n">
-        <v>18.91040660993539</v>
+        <v>17.61829959286693</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1777453957556295</v>
+        <v>0.173828226050735</v>
       </c>
       <c r="G98" t="n">
-        <v>6101.621349632853</v>
+        <v>6059.91149629844</v>
       </c>
       <c r="H98" t="n">
-        <v>2.97130298167136</v>
+        <v>0.762489808547429</v>
       </c>
     </row>
     <row r="99">
@@ -3198,25 +3198,25 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>4.321784699001501</v>
+        <v>7.087724763694346</v>
       </c>
       <c r="C99" t="n">
-        <v>0.04827442865291674</v>
+        <v>0.1642112721816323</v>
       </c>
       <c r="D99" t="n">
-        <v>1.92627075801977</v>
+        <v>1.884039951901146</v>
       </c>
       <c r="E99" t="n">
-        <v>18.90236125361212</v>
+        <v>16.38234997543655</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1777171231315584</v>
+        <v>0.181407188170435</v>
       </c>
       <c r="G99" t="n">
-        <v>6099.380935115731</v>
+        <v>6020.467124703029</v>
       </c>
       <c r="H99" t="n">
-        <v>2.96232694927051</v>
+        <v>0.935331710755979</v>
       </c>
     </row>
     <row r="100">
@@ -3226,25 +3226,25 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>4.314526507962096</v>
+        <v>5.712997895727698</v>
       </c>
       <c r="C100" t="n">
-        <v>0.04795965505359046</v>
+        <v>0.09615512252651261</v>
       </c>
       <c r="D100" t="n">
-        <v>1.925747879869418</v>
+        <v>1.882289374028178</v>
       </c>
       <c r="E100" t="n">
-        <v>18.90243795916988</v>
+        <v>16.36191998963682</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1777429714846726</v>
+        <v>0.1830691260104682</v>
       </c>
       <c r="G100" t="n">
-        <v>6099.14449192465</v>
+        <v>6017.447318436864</v>
       </c>
       <c r="H100" t="n">
-        <v>3.13846862350574</v>
+        <v>2.32766303224943</v>
       </c>
     </row>
     <row r="101">
@@ -3254,25 +3254,25 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>4.315554271951426</v>
+        <v>5.923444037787174</v>
       </c>
       <c r="C101" t="n">
-        <v>0.04803219388345837</v>
+        <v>0.1260197259450758</v>
       </c>
       <c r="D101" t="n">
-        <v>1.942230668204499</v>
+        <v>1.935449283867499</v>
       </c>
       <c r="E101" t="n">
-        <v>18.92052345353122</v>
+        <v>18.21451412212974</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1781124196398642</v>
+        <v>0.1814372161769168</v>
       </c>
       <c r="G101" t="n">
-        <v>6106.032228617589</v>
+        <v>6087.930511439993</v>
       </c>
       <c r="H101" t="n">
-        <v>3.10663541507623</v>
+        <v>1.0251467503241</v>
       </c>
     </row>
     <row r="102">
@@ -3282,25 +3282,25 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>4.315358322243139</v>
+        <v>5.824311383224792</v>
       </c>
       <c r="C102" t="n">
-        <v>0.04796388451996165</v>
+        <v>0.09579496758837998</v>
       </c>
       <c r="D102" t="n">
-        <v>1.926952401087566</v>
+        <v>1.88511440692828</v>
       </c>
       <c r="E102" t="n">
-        <v>18.9026572757572</v>
+        <v>16.3058740883006</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1778136356523991</v>
+        <v>0.1856973617636538</v>
       </c>
       <c r="G102" t="n">
-        <v>6099.39692063952</v>
+        <v>6017.125735294533</v>
       </c>
       <c r="H102" t="n">
-        <v>3.12107599328732</v>
+        <v>2.25187690571578</v>
       </c>
     </row>
     <row r="103">
@@ -3310,25 +3310,25 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>4.317592696717273</v>
+        <v>6.224954743510883</v>
       </c>
       <c r="C103" t="n">
-        <v>0.04813210521728551</v>
+        <v>0.1449423231830496</v>
       </c>
       <c r="D103" t="n">
-        <v>1.931019189315795</v>
+        <v>1.905396373189764</v>
       </c>
       <c r="E103" t="n">
-        <v>18.91406910324926</v>
+        <v>17.97461296402464</v>
       </c>
       <c r="F103" t="n">
-        <v>0.1780576713875371</v>
+        <v>0.1822963980147462</v>
       </c>
       <c r="G103" t="n">
-        <v>6103.081436865078</v>
+        <v>6075.580756344911</v>
       </c>
       <c r="H103" t="n">
-        <v>2.99196675961969</v>
+        <v>0.804550229560922</v>
       </c>
     </row>
     <row r="104">
@@ -3338,25 +3338,25 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>4.31832624063167</v>
+        <v>6.383138973731831</v>
       </c>
       <c r="C104" t="n">
-        <v>0.04813234017718886</v>
+        <v>0.1260411895415136</v>
       </c>
       <c r="D104" t="n">
-        <v>1.927859467514838</v>
+        <v>1.892687002553666</v>
       </c>
       <c r="E104" t="n">
-        <v>18.9072181541433</v>
+        <v>17.04946713522453</v>
       </c>
       <c r="F104" t="n">
-        <v>0.1782107269865067</v>
+        <v>0.1935357554340845</v>
       </c>
       <c r="G104" t="n">
-        <v>6101.012354797437</v>
+        <v>6047.29077408973</v>
       </c>
       <c r="H104" t="n">
-        <v>3.00448903828198</v>
+        <v>1.15417298208298</v>
       </c>
     </row>
     <row r="105">
@@ -3366,25 +3366,25 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>4.315749121945189</v>
+        <v>5.873531165687819</v>
       </c>
       <c r="C105" t="n">
-        <v>0.04822631192760848</v>
+        <v>0.2160861437644561</v>
       </c>
       <c r="D105" t="n">
-        <v>1.918046776253102</v>
+        <v>1.880075727059082</v>
       </c>
       <c r="E105" t="n">
-        <v>18.91553651362782</v>
+        <v>19.1642107391901</v>
       </c>
       <c r="F105" t="n">
-        <v>0.1781108812097804</v>
+        <v>0.1766293712065946</v>
       </c>
       <c r="G105" t="n">
-        <v>6101.688461516779</v>
+        <v>6107.006252461027</v>
       </c>
       <c r="H105" t="n">
-        <v>2.89689050397295</v>
+        <v>0.38314589893692</v>
       </c>
     </row>
     <row r="106">
@@ -3394,25 +3394,25 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>4.317190295523904</v>
+        <v>6.109512267969146</v>
       </c>
       <c r="C106" t="n">
-        <v>0.04801594038190955</v>
+        <v>0.1108299724850805</v>
       </c>
       <c r="D106" t="n">
-        <v>1.937890075542949</v>
+        <v>1.919201457780412</v>
       </c>
       <c r="E106" t="n">
-        <v>18.91398312633157</v>
+        <v>17.38744954486925</v>
       </c>
       <c r="F106" t="n">
-        <v>0.1779377853104441</v>
+        <v>0.1825559079933592</v>
       </c>
       <c r="G106" t="n">
-        <v>6103.740938395968</v>
+        <v>6057.891691513488</v>
       </c>
       <c r="H106" t="n">
-        <v>3.06791510824652</v>
+        <v>1.35593067609305</v>
       </c>
     </row>
     <row r="107">
@@ -3422,25 +3422,25 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>4.312876518227659</v>
+        <v>5.431032848361755</v>
       </c>
       <c r="C107" t="n">
-        <v>0.04791015812259221</v>
+        <v>0.08969558005247859</v>
       </c>
       <c r="D107" t="n">
-        <v>1.924983015390036</v>
+        <v>1.883424389842463</v>
       </c>
       <c r="E107" t="n">
-        <v>18.90521759218375</v>
+        <v>16.88022368560988</v>
       </c>
       <c r="F107" t="n">
-        <v>0.1777975257122232</v>
+        <v>0.1830027802302626</v>
       </c>
       <c r="G107" t="n">
-        <v>6099.778105351225</v>
+        <v>6033.928537939255</v>
       </c>
       <c r="H107" t="n">
-        <v>3.13801408382849</v>
+        <v>2.29875524624172</v>
       </c>
     </row>
     <row r="108">
@@ -3450,25 +3450,25 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>4.312055143415582</v>
+        <v>5.81301947656601</v>
       </c>
       <c r="C108" t="n">
-        <v>0.04846791002436292</v>
+        <v>0.1982493020799837</v>
       </c>
       <c r="D108" t="n">
-        <v>1.883475176562881</v>
+        <v>1.796445494341254</v>
       </c>
       <c r="E108" t="n">
-        <v>18.89638204200791</v>
+        <v>18.46012501111076</v>
       </c>
       <c r="F108" t="n">
-        <v>0.177675956599442</v>
+        <v>0.1693600427049433</v>
       </c>
       <c r="G108" t="n">
-        <v>6090.949950527698</v>
+        <v>6065.030841524601</v>
       </c>
       <c r="H108" t="n">
-        <v>2.85116886118254</v>
+        <v>0.45495622540453</v>
       </c>
     </row>
     <row r="109">
@@ -3478,25 +3478,25 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>4.3101979424504</v>
+        <v>4.956113546917418</v>
       </c>
       <c r="C109" t="n">
-        <v>0.04782302186978538</v>
+        <v>0.08435108382223028</v>
       </c>
       <c r="D109" t="n">
-        <v>1.930072173631205</v>
+        <v>1.902752204452151</v>
       </c>
       <c r="E109" t="n">
-        <v>18.91466008002827</v>
+        <v>18.06747420955555</v>
       </c>
       <c r="F109" t="n">
-        <v>0.1778811927785118</v>
+        <v>0.1774163561022389</v>
       </c>
       <c r="G109" t="n">
-        <v>6102.822690014727</v>
+        <v>6073.577177646058</v>
       </c>
       <c r="H109" t="n">
-        <v>3.16306344990219</v>
+        <v>2.1121318062642</v>
       </c>
     </row>
     <row r="110">
@@ -3506,25 +3506,25 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>4.314435208263457</v>
+        <v>5.58542950906679</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0478873190547058</v>
+        <v>0.09172664134915277</v>
       </c>
       <c r="D110" t="n">
-        <v>1.936021222978598</v>
+        <v>1.908661479320484</v>
       </c>
       <c r="E110" t="n">
-        <v>18.90825593951171</v>
+        <v>16.48914938047063</v>
       </c>
       <c r="F110" t="n">
-        <v>0.1777708353941012</v>
+        <v>0.1815413107670522</v>
       </c>
       <c r="G110" t="n">
-        <v>6101.797259466179</v>
+        <v>6024.861243370079</v>
       </c>
       <c r="H110" t="n">
-        <v>3.18870391451059</v>
+        <v>2.52240854955132</v>
       </c>
     </row>
     <row r="111">
@@ -3534,25 +3534,25 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>4.31708530422595</v>
+        <v>5.875168893377278</v>
       </c>
       <c r="C111" t="n">
-        <v>0.04803843387922614</v>
+        <v>0.1902706496574716</v>
       </c>
       <c r="D111" t="n">
-        <v>1.950083260061969</v>
+        <v>1.964192970643605</v>
       </c>
       <c r="E111" t="n">
-        <v>18.93111806851778</v>
+        <v>19.59242277889551</v>
       </c>
       <c r="F111" t="n">
-        <v>0.1781698842722207</v>
+        <v>0.1710442369792418</v>
       </c>
       <c r="G111" t="n">
-        <v>6109.826535248303</v>
+        <v>6136.340208133404</v>
       </c>
       <c r="H111" t="n">
-        <v>3.00945621106242</v>
+        <v>0.426585698490817</v>
       </c>
     </row>
     <row r="112">
@@ -3562,25 +3562,25 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>4.311399188660123</v>
+        <v>5.222097527143838</v>
       </c>
       <c r="C112" t="n">
-        <v>0.04787351067250344</v>
+        <v>0.08461457378511716</v>
       </c>
       <c r="D112" t="n">
-        <v>1.913769117304416</v>
+        <v>1.848385159272423</v>
       </c>
       <c r="E112" t="n">
-        <v>18.8917103702137</v>
+        <v>15.56553877295941</v>
       </c>
       <c r="F112" t="n">
-        <v>0.1775561622351554</v>
+        <v>0.182931295826439</v>
       </c>
       <c r="G112" t="n">
-        <v>6094.744130115145</v>
+        <v>5985.112271860042</v>
       </c>
       <c r="H112" t="n">
-        <v>3.1916644711394</v>
+        <v>3.16158630481159</v>
       </c>
     </row>
     <row r="113">
@@ -3590,25 +3590,25 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>4.315419549775579</v>
+        <v>5.501086909983862</v>
       </c>
       <c r="C113" t="n">
-        <v>0.04774834149140481</v>
+        <v>0.08278463144780646</v>
       </c>
       <c r="D113" t="n">
-        <v>1.95779015258134</v>
+        <v>1.964971278869724</v>
       </c>
       <c r="E113" t="n">
-        <v>18.91743235680342</v>
+        <v>16.20145828394259</v>
       </c>
       <c r="F113" t="n">
-        <v>0.1780894635064074</v>
+        <v>0.1893504687131037</v>
       </c>
       <c r="G113" t="n">
-        <v>6106.317198845779</v>
+        <v>6026.128661804933</v>
       </c>
       <c r="H113" t="n">
-        <v>3.28200381845604</v>
+        <v>3.06847989109402</v>
       </c>
     </row>
     <row r="114">
@@ -3618,25 +3618,25 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>4.311110478722999</v>
+        <v>4.842765332861773</v>
       </c>
       <c r="C114" t="n">
-        <v>0.04772389158584026</v>
+        <v>0.07834310020894548</v>
       </c>
       <c r="D114" t="n">
-        <v>1.946182578560589</v>
+        <v>1.942264342522109</v>
       </c>
       <c r="E114" t="n">
-        <v>18.91975129523702</v>
+        <v>17.67427002308954</v>
       </c>
       <c r="F114" t="n">
-        <v>0.1780476698517797</v>
+        <v>0.1845125223396612</v>
       </c>
       <c r="G114" t="n">
-        <v>6106.013808928858</v>
+        <v>6069.440433912221</v>
       </c>
       <c r="H114" t="n">
-        <v>3.25215212374154</v>
+        <v>2.6899205448601</v>
       </c>
     </row>
     <row r="115">
@@ -3646,25 +3646,25 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>4.315365071495236</v>
+        <v>5.437412890051429</v>
       </c>
       <c r="C115" t="n">
-        <v>0.04796635431273186</v>
+        <v>0.1710114941543406</v>
       </c>
       <c r="D115" t="n">
-        <v>1.952899707238475</v>
+        <v>1.976631936981609</v>
       </c>
       <c r="E115" t="n">
-        <v>18.93589488194866</v>
+        <v>20.28282442380692</v>
       </c>
       <c r="F115" t="n">
-        <v>0.1785297614871569</v>
+        <v>0.1835978442524044</v>
       </c>
       <c r="G115" t="n">
-        <v>6111.636279314681</v>
+        <v>6165.099957090029</v>
       </c>
       <c r="H115" t="n">
-        <v>3.01994987331327</v>
+        <v>0.40527652505351</v>
       </c>
     </row>
     <row r="116">
@@ -3674,25 +3674,25 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>4.316563929137025</v>
+        <v>5.851172835292582</v>
       </c>
       <c r="C116" t="n">
-        <v>0.04789387695653471</v>
+        <v>0.1016768801086569</v>
       </c>
       <c r="D116" t="n">
-        <v>1.957103364547157</v>
+        <v>1.974020216983474</v>
       </c>
       <c r="E116" t="n">
-        <v>18.92595045797046</v>
+        <v>17.97409323378041</v>
       </c>
       <c r="F116" t="n">
-        <v>0.1781908831658797</v>
+        <v>0.1858778246636018</v>
       </c>
       <c r="G116" t="n">
-        <v>6108.9594943547</v>
+        <v>6087.380877159912</v>
       </c>
       <c r="H116" t="n">
-        <v>3.14820376093388</v>
+        <v>1.44310416409221</v>
       </c>
     </row>
     <row r="117">
@@ -3702,25 +3702,25 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>4.316879914162701</v>
+        <v>5.923525659711877</v>
       </c>
       <c r="C117" t="n">
-        <v>0.04786395890855001</v>
+        <v>0.09374889717790336</v>
       </c>
       <c r="D117" t="n">
-        <v>1.954460754501148</v>
+        <v>1.957962740524286</v>
       </c>
       <c r="E117" t="n">
-        <v>18.91753634346889</v>
+        <v>16.56267405293123</v>
       </c>
       <c r="F117" t="n">
-        <v>0.1779935202445978</v>
+        <v>0.1856555129957213</v>
       </c>
       <c r="G117" t="n">
-        <v>6106.14420309781</v>
+        <v>6036.576721486507</v>
       </c>
       <c r="H117" t="n">
-        <v>3.21120752255908</v>
+        <v>2.27812561508478</v>
       </c>
     </row>
     <row r="118">
@@ -3730,25 +3730,25 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>4.317102659987905</v>
+        <v>5.857072324558024</v>
       </c>
       <c r="C118" t="n">
-        <v>0.04782804560631609</v>
+        <v>0.09258228984641076</v>
       </c>
       <c r="D118" t="n">
-        <v>1.964616041820839</v>
+        <v>1.989235466695068</v>
       </c>
       <c r="E118" t="n">
-        <v>18.92500256478677</v>
+        <v>17.07967763828008</v>
       </c>
       <c r="F118" t="n">
-        <v>0.1780991294911738</v>
+        <v>0.1853453320150316</v>
       </c>
       <c r="G118" t="n">
-        <v>6109.092296353821</v>
+        <v>6058.658614094466</v>
       </c>
       <c r="H118" t="n">
-        <v>3.22322314984201</v>
+        <v>2.17108840672056</v>
       </c>
     </row>
     <row r="119">
@@ -3758,25 +3758,25 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>4.313042365448129</v>
+        <v>5.064021682024939</v>
       </c>
       <c r="C119" t="n">
-        <v>0.04772251854083963</v>
+        <v>0.07933916544165676</v>
       </c>
       <c r="D119" t="n">
-        <v>1.950291275315615</v>
+        <v>1.944867633844544</v>
       </c>
       <c r="E119" t="n">
-        <v>18.91432897870784</v>
+        <v>16.2932569225326</v>
       </c>
       <c r="F119" t="n">
-        <v>0.1779633704507765</v>
+        <v>0.1863356569002544</v>
       </c>
       <c r="G119" t="n">
-        <v>6104.76638892001</v>
+        <v>6024.34364254013</v>
       </c>
       <c r="H119" t="n">
-        <v>3.30746084388438</v>
+        <v>3.32983970993722</v>
       </c>
     </row>
     <row r="120">
@@ -3786,25 +3786,25 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>4.3152125801784</v>
+        <v>5.249903492379683</v>
       </c>
       <c r="C120" t="n">
-        <v>0.04768992814603619</v>
+        <v>0.0803063483287712</v>
       </c>
       <c r="D120" t="n">
-        <v>1.979349937107274</v>
+        <v>2.034560367059916</v>
       </c>
       <c r="E120" t="n">
-        <v>18.93410232189941</v>
+        <v>17.51484359083403</v>
       </c>
       <c r="F120" t="n">
-        <v>0.1782872891474287</v>
+        <v>0.1876988416162535</v>
       </c>
       <c r="G120" t="n">
-        <v>6112.676332067133</v>
+        <v>6080.299607325549</v>
       </c>
       <c r="H120" t="n">
-        <v>3.32526460363998</v>
+        <v>2.773816641609</v>
       </c>
     </row>
     <row r="121">
@@ -3814,25 +3814,25 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>4.310326196389929</v>
+        <v>5.180069095163073</v>
       </c>
       <c r="C121" t="n">
-        <v>0.04791920497776107</v>
+        <v>0.08697723356467027</v>
       </c>
       <c r="D121" t="n">
-        <v>1.914564968767913</v>
+        <v>1.86030142373801</v>
       </c>
       <c r="E121" t="n">
-        <v>18.90284541455149</v>
+        <v>17.28104605051707</v>
       </c>
       <c r="F121" t="n">
-        <v>0.1777169446161353</v>
+        <v>0.1803881961239984</v>
       </c>
       <c r="G121" t="n">
-        <v>6097.719867042345</v>
+        <v>6041.331264119172</v>
       </c>
       <c r="H121" t="n">
-        <v>3.11652456274917</v>
+        <v>2.13757870723941</v>
       </c>
     </row>
     <row r="122">
@@ -3842,25 +3842,25 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>4.306390293433568</v>
+        <v>4.351577330363508</v>
       </c>
       <c r="C122" t="n">
-        <v>0.04800995732106027</v>
+        <v>0.1333983348109894</v>
       </c>
       <c r="D122" t="n">
-        <v>1.90765978619605</v>
+        <v>1.867918229951055</v>
       </c>
       <c r="E122" t="n">
-        <v>18.92634623679303</v>
+        <v>21.43743524690674</v>
       </c>
       <c r="F122" t="n">
-        <v>0.1781082906599325</v>
+        <v>0.1776940933932633</v>
       </c>
       <c r="G122" t="n">
-        <v>6102.477263082686</v>
+        <v>6172.282322612959</v>
       </c>
       <c r="H122" t="n">
-        <v>2.89829358035377</v>
+        <v>0.416716604115816</v>
       </c>
     </row>
     <row r="123">
@@ -3870,25 +3870,25 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>4.313035901880117</v>
+        <v>5.24544706056718</v>
       </c>
       <c r="C123" t="n">
-        <v>0.04780068375049626</v>
+        <v>0.08461103709828356</v>
       </c>
       <c r="D123" t="n">
-        <v>1.943844839691568</v>
+        <v>1.93181836044127</v>
       </c>
       <c r="E123" t="n">
-        <v>18.91483438351867</v>
+        <v>16.98020880856972</v>
       </c>
       <c r="F123" t="n">
-        <v>0.177883841650202</v>
+        <v>0.1820917003794224</v>
       </c>
       <c r="G123" t="n">
-        <v>6104.375536103049</v>
+        <v>6044.26804132645</v>
       </c>
       <c r="H123" t="n">
-        <v>3.23589081541266</v>
+        <v>2.66225850142213</v>
       </c>
     </row>
     <row r="124">
@@ -3898,25 +3898,25 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>4.311379637860997</v>
+        <v>4.838345815764421</v>
       </c>
       <c r="C124" t="n">
-        <v>0.04771288704004412</v>
+        <v>0.07754406959469697</v>
       </c>
       <c r="D124" t="n">
-        <v>1.944465920621764</v>
+        <v>1.931621106964264</v>
       </c>
       <c r="E124" t="n">
-        <v>18.9136649484774</v>
+        <v>16.68780185126734</v>
       </c>
       <c r="F124" t="n">
-        <v>0.1778906525721168</v>
+        <v>0.1833001275999767</v>
       </c>
       <c r="G124" t="n">
-        <v>6104.042195315003</v>
+        <v>6034.236182610182</v>
       </c>
       <c r="H124" t="n">
-        <v>3.29761692458831</v>
+        <v>3.25696784073194</v>
       </c>
     </row>
     <row r="125">
@@ -3926,25 +3926,25 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>4.314563919853333</v>
+        <v>5.048584940937735</v>
       </c>
       <c r="C125" t="n">
-        <v>0.04765362471911046</v>
+        <v>0.07783818348019925</v>
       </c>
       <c r="D125" t="n">
-        <v>1.983878651642876</v>
+        <v>2.050077389085293</v>
       </c>
       <c r="E125" t="n">
-        <v>18.93779502264295</v>
+        <v>17.86555041596766</v>
       </c>
       <c r="F125" t="n">
-        <v>0.1782756081625386</v>
+        <v>0.184777392858527</v>
       </c>
       <c r="G125" t="n">
-        <v>6114.009308174175</v>
+        <v>6093.49545485765</v>
       </c>
       <c r="H125" t="n">
-        <v>3.34966581371524</v>
+        <v>2.83743546512926</v>
       </c>
     </row>
     <row r="126">
@@ -3954,25 +3954,25 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>4.312061589478414</v>
+        <v>5.105420711622754</v>
       </c>
       <c r="C126" t="n">
-        <v>0.04778811875342218</v>
+        <v>0.08286570485911209</v>
       </c>
       <c r="D126" t="n">
-        <v>1.94187847404672</v>
+        <v>1.929586759075499</v>
       </c>
       <c r="E126" t="n">
-        <v>18.91658953818511</v>
+        <v>17.46550028564394</v>
       </c>
       <c r="F126" t="n">
-        <v>0.1779273690949064</v>
+        <v>0.1822391050607754</v>
       </c>
       <c r="G126" t="n">
-        <v>6104.690728432694</v>
+        <v>6059.852985889042</v>
       </c>
       <c r="H126" t="n">
-        <v>3.21843640648819</v>
+        <v>2.48250077973439</v>
       </c>
     </row>
     <row r="127">
@@ -3982,25 +3982,25 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>4.313047791532298</v>
+        <v>5.527457523321391</v>
       </c>
       <c r="C127" t="n">
-        <v>0.04798067744358708</v>
+        <v>0.09844627927208889</v>
       </c>
       <c r="D127" t="n">
-        <v>1.924133053451438</v>
+        <v>1.887033941012022</v>
       </c>
       <c r="E127" t="n">
-        <v>18.91061435287148</v>
+        <v>17.86453076862707</v>
       </c>
       <c r="F127" t="n">
-        <v>0.1778561175482823</v>
+        <v>0.1787310434317562</v>
       </c>
       <c r="G127" t="n">
-        <v>6101.107040068446</v>
+        <v>6065.530373249014</v>
       </c>
       <c r="H127" t="n">
-        <v>3.0718119086254</v>
+        <v>1.48619998493219</v>
       </c>
     </row>
     <row r="128">
@@ -4010,25 +4010,25 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>4.312072346630474</v>
+        <v>5.858616715027656</v>
       </c>
       <c r="C128" t="n">
-        <v>0.04836885644265217</v>
+        <v>0.119330672547222</v>
       </c>
       <c r="D128" t="n">
-        <v>1.876439128527106</v>
+        <v>1.773045521194597</v>
       </c>
       <c r="E128" t="n">
-        <v>18.88222481274761</v>
+        <v>16.93460842890074</v>
       </c>
       <c r="F128" t="n">
-        <v>0.1775197637976823</v>
+        <v>0.1785852392908011</v>
       </c>
       <c r="G128" t="n">
-        <v>6086.396989471655</v>
+        <v>6015.218818578813</v>
       </c>
       <c r="H128" t="n">
-        <v>2.88078171651578</v>
+        <v>1.09173804815882</v>
       </c>
     </row>
     <row r="129">
@@ -4038,25 +4038,25 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>4.306950478113535</v>
+        <v>5.255465260608494</v>
       </c>
       <c r="C129" t="n">
-        <v>0.04819132058959118</v>
+        <v>0.09583516185138993</v>
       </c>
       <c r="D129" t="n">
-        <v>1.871472468528086</v>
+        <v>1.761412176173473</v>
       </c>
       <c r="E129" t="n">
-        <v>18.87892010063326</v>
+        <v>16.77110019596554</v>
       </c>
       <c r="F129" t="n">
-        <v>0.1773901214308213</v>
+        <v>0.1772299326908355</v>
       </c>
       <c r="G129" t="n">
-        <v>6084.499655059103</v>
+        <v>6006.180299542431</v>
       </c>
       <c r="H129" t="n">
-        <v>2.96610275493688</v>
+        <v>1.78668423731715</v>
       </c>
     </row>
     <row r="130">
@@ -4066,25 +4066,25 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>4.316610316245047</v>
+        <v>6.173217807657243</v>
       </c>
       <c r="C130" t="n">
-        <v>0.04809746291932533</v>
+        <v>0.1156833135025876</v>
       </c>
       <c r="D130" t="n">
-        <v>1.927037741957955</v>
+        <v>1.889306378415355</v>
       </c>
       <c r="E130" t="n">
-        <v>18.90626102502776</v>
+        <v>16.93486108166169</v>
       </c>
       <c r="F130" t="n">
-        <v>0.1779344433383481</v>
+        <v>0.1862048086590013</v>
       </c>
       <c r="G130" t="n">
-        <v>6100.476292267306</v>
+        <v>6039.377228400953</v>
       </c>
       <c r="H130" t="n">
-        <v>3.06506413200194</v>
+        <v>1.40372363355684</v>
       </c>
     </row>
     <row r="131">
@@ -4094,25 +4094,25 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>4.310405229294524</v>
+        <v>4.888994236258133</v>
       </c>
       <c r="C131" t="n">
-        <v>0.04777607351156577</v>
+        <v>0.0803261608384821</v>
       </c>
       <c r="D131" t="n">
-        <v>1.928551209006323</v>
+        <v>1.889050975516086</v>
       </c>
       <c r="E131" t="n">
-        <v>18.90429262212698</v>
+        <v>16.39656281234053</v>
       </c>
       <c r="F131" t="n">
-        <v>0.1776983184431646</v>
+        <v>0.1808839800821007</v>
       </c>
       <c r="G131" t="n">
-        <v>6099.80322663615</v>
+        <v>6017.329851033998</v>
       </c>
       <c r="H131" t="n">
-        <v>3.25281606676599</v>
+        <v>3.18694809369743</v>
       </c>
     </row>
     <row r="132">
@@ -4122,25 +4122,25 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>4.314340081924944</v>
+        <v>5.30095226592086</v>
       </c>
       <c r="C132" t="n">
-        <v>0.04775310095814043</v>
+        <v>0.08303774028321413</v>
       </c>
       <c r="D132" t="n">
-        <v>1.953884654276941</v>
+        <v>1.955538365280079</v>
       </c>
       <c r="E132" t="n">
-        <v>18.91690471727626</v>
+        <v>16.46578150542171</v>
       </c>
       <c r="F132" t="n">
-        <v>0.1779424333958917</v>
+        <v>0.1840600444756029</v>
       </c>
       <c r="G132" t="n">
-        <v>6105.807294297974</v>
+        <v>6031.328683695991</v>
       </c>
       <c r="H132" t="n">
-        <v>3.28251144371834</v>
+        <v>3.08524067049241</v>
       </c>
     </row>
     <row r="133">
@@ -4150,25 +4150,25 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>4.315116597860436</v>
+        <v>5.686748106186696</v>
       </c>
       <c r="C133" t="n">
-        <v>0.04790099621570916</v>
+        <v>0.09483888597185287</v>
       </c>
       <c r="D133" t="n">
-        <v>1.942470222750014</v>
+        <v>1.930796149730204</v>
       </c>
       <c r="E133" t="n">
-        <v>18.91531542903661</v>
+        <v>17.22186047034204</v>
       </c>
       <c r="F133" t="n">
-        <v>0.1783000080424372</v>
+        <v>0.1945913951029512</v>
       </c>
       <c r="G133" t="n">
-        <v>6104.694658764804</v>
+        <v>6058.320725913965</v>
       </c>
       <c r="H133" t="n">
-        <v>3.15255069384945</v>
+        <v>1.95097651532459</v>
       </c>
     </row>
     <row r="134">
@@ -4178,25 +4178,25 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>4.315861218080519</v>
+        <v>5.680538084598963</v>
       </c>
       <c r="C134" t="n">
-        <v>0.04794640233923779</v>
+        <v>0.1259759867278874</v>
       </c>
       <c r="D134" t="n">
-        <v>1.952700508783515</v>
+        <v>1.969097501413138</v>
       </c>
       <c r="E134" t="n">
-        <v>18.93066331245877</v>
+        <v>19.27150659771189</v>
       </c>
       <c r="F134" t="n">
-        <v>0.1780695785255477</v>
+        <v>0.1686415414009213</v>
       </c>
       <c r="G134" t="n">
-        <v>6109.850437040224</v>
+        <v>6125.390520939168</v>
       </c>
       <c r="H134" t="n">
-        <v>3.07356261810528</v>
+        <v>0.760501690589392</v>
       </c>
     </row>
     <row r="135">
@@ -4206,25 +4206,25 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>4.317159915148569</v>
+        <v>5.899015853954761</v>
       </c>
       <c r="C135" t="n">
-        <v>0.04785484919096186</v>
+        <v>0.09616837998944437</v>
       </c>
       <c r="D135" t="n">
-        <v>1.962138357220352</v>
+        <v>1.98355649739851</v>
       </c>
       <c r="E135" t="n">
-        <v>18.92490048934884</v>
+        <v>17.30020238092486</v>
       </c>
       <c r="F135" t="n">
-        <v>0.1780553391474004</v>
+        <v>0.1829348313241053</v>
       </c>
       <c r="G135" t="n">
-        <v>6108.904388316868</v>
+        <v>6064.72293303608</v>
       </c>
       <c r="H135" t="n">
-        <v>3.19818317607795</v>
+        <v>1.95648000516457</v>
       </c>
     </row>
     <row r="136">
@@ -4234,25 +4234,25 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>4.312424477524598</v>
+        <v>5.137653864136615</v>
       </c>
       <c r="C136" t="n">
-        <v>0.0477881556243135</v>
+        <v>0.08267674659213645</v>
       </c>
       <c r="D136" t="n">
-        <v>1.938822120267381</v>
+        <v>1.916774221264359</v>
       </c>
       <c r="E136" t="n">
-        <v>18.91076565969959</v>
+        <v>16.67130703290343</v>
       </c>
       <c r="F136" t="n">
-        <v>0.1777885189676888</v>
+        <v>0.180860731772726</v>
       </c>
       <c r="G136" t="n">
-        <v>6102.706594345468</v>
+        <v>6031.06325813052</v>
       </c>
       <c r="H136" t="n">
-        <v>3.24139772729715</v>
+        <v>2.93123418202174</v>
       </c>
     </row>
     <row r="137">
@@ -4262,25 +4262,25 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>4.31812423603329</v>
+        <v>5.589497979353267</v>
       </c>
       <c r="C137" t="n">
-        <v>0.04819708882459139</v>
+        <v>1.028101436162831</v>
       </c>
       <c r="D137" t="n">
-        <v>1.95422570310504</v>
+        <v>1.994205909681486</v>
       </c>
       <c r="E137" t="n">
-        <v>18.94849337704314</v>
+        <v>22.72757638553772</v>
       </c>
       <c r="F137" t="n">
-        <v>0.1783201874227529</v>
+        <v>0.1689570882592092</v>
       </c>
       <c r="G137" t="n">
-        <v>6115.471934631835</v>
+        <v>6244.644361862959</v>
       </c>
       <c r="H137" t="n">
-        <v>2.81784504153169</v>
+        <v>0.133497116613479</v>
       </c>
     </row>
     <row r="138">
@@ -4290,25 +4290,25 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>4.313577624997427</v>
+        <v>5.38116911124783</v>
       </c>
       <c r="C138" t="n">
-        <v>0.04783216459188445</v>
+        <v>0.08529631158565257</v>
       </c>
       <c r="D138" t="n">
-        <v>1.934600002682509</v>
+        <v>1.903090599223136</v>
       </c>
       <c r="E138" t="n">
-        <v>18.90588753939751</v>
+        <v>16.18293568924507</v>
       </c>
       <c r="F138" t="n">
-        <v>0.1777182249773879</v>
+        <v>0.1816279434629866</v>
       </c>
       <c r="G138" t="n">
-        <v>6100.947912060993</v>
+        <v>6013.357528643211</v>
       </c>
       <c r="H138" t="n">
-        <v>3.21591277225058</v>
+        <v>2.91788644641232</v>
       </c>
     </row>
     <row r="139">
@@ -4318,25 +4318,25 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>4.317604909458587</v>
+        <v>6.18220540209056</v>
       </c>
       <c r="C139" t="n">
-        <v>0.04803705711636395</v>
+        <v>0.1208697547178314</v>
       </c>
       <c r="D139" t="n">
-        <v>1.941490980897113</v>
+        <v>1.930493611570225</v>
       </c>
       <c r="E139" t="n">
-        <v>18.91773306209126</v>
+        <v>17.77155733893277</v>
       </c>
       <c r="F139" t="n">
-        <v>0.1778379139367854</v>
+        <v>0.1754415633786159</v>
       </c>
       <c r="G139" t="n">
-        <v>6105.097950470817</v>
+        <v>6070.532107438869</v>
       </c>
       <c r="H139" t="n">
-        <v>3.05809493842877</v>
+        <v>1.0864623427215</v>
       </c>
     </row>
     <row r="140">
@@ -4346,25 +4346,25 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>4.317829211383603</v>
+        <v>6.261571684144887</v>
       </c>
       <c r="C140" t="n">
-        <v>0.04811851369084443</v>
+        <v>0.138561864616624</v>
       </c>
       <c r="D140" t="n">
-        <v>1.932979091866365</v>
+        <v>1.909382082662329</v>
       </c>
       <c r="E140" t="n">
-        <v>18.91457197569712</v>
+        <v>17.90383332608515</v>
       </c>
       <c r="F140" t="n">
-        <v>0.1777834105507985</v>
+        <v>0.173222977093499</v>
       </c>
       <c r="G140" t="n">
-        <v>6103.315643923604</v>
+        <v>6071.011669392684</v>
       </c>
       <c r="H140" t="n">
-        <v>3.00171055985147</v>
+        <v>0.848747369058371</v>
       </c>
     </row>
     <row r="141">
@@ -4374,25 +4374,25 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>4.315667923535414</v>
+        <v>5.882622958509448</v>
       </c>
       <c r="C141" t="n">
-        <v>0.04796989928367965</v>
+        <v>0.09693290904090426</v>
       </c>
       <c r="D141" t="n">
-        <v>1.930056201522212</v>
+        <v>1.893263009634431</v>
       </c>
       <c r="E141" t="n">
-        <v>18.90489388726231</v>
+        <v>16.42977111051153</v>
       </c>
       <c r="F141" t="n">
-        <v>0.1777033532793267</v>
+        <v>0.180957888354717</v>
       </c>
       <c r="G141" t="n">
-        <v>6100.284639995575</v>
+        <v>6020.700491457568</v>
       </c>
       <c r="H141" t="n">
-        <v>3.12672931767201</v>
+        <v>2.13023046676879</v>
       </c>
     </row>
     <row r="142">
@@ -4402,25 +4402,25 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>4.31791946162388</v>
+        <v>6.395965900665638</v>
       </c>
       <c r="C142" t="n">
-        <v>0.04817597087102562</v>
+        <v>0.1165269166182224</v>
       </c>
       <c r="D142" t="n">
-        <v>1.91508669088145</v>
+        <v>1.85673264894214</v>
       </c>
       <c r="E142" t="n">
-        <v>18.89716640170861</v>
+        <v>16.39851691893853</v>
       </c>
       <c r="F142" t="n">
-        <v>0.1776177559347612</v>
+        <v>0.1808942197393691</v>
       </c>
       <c r="G142" t="n">
-        <v>6096.516652330129</v>
+        <v>6014.832633901055</v>
       </c>
       <c r="H142" t="n">
-        <v>2.99273385589401</v>
+        <v>1.41904193037266</v>
       </c>
     </row>
     <row r="143">
@@ -4430,25 +4430,25 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>4.314897121969599</v>
+        <v>5.685845014429661</v>
       </c>
       <c r="C143" t="n">
-        <v>0.04791262617901242</v>
+        <v>0.0929560968993328</v>
       </c>
       <c r="D143" t="n">
-        <v>1.935436690132576</v>
+        <v>1.908709477163105</v>
       </c>
       <c r="E143" t="n">
-        <v>18.90819718686664</v>
+        <v>16.54554576509938</v>
       </c>
       <c r="F143" t="n">
-        <v>0.1782589011367447</v>
+        <v>0.1964360610510896</v>
       </c>
       <c r="G143" t="n">
-        <v>6102.021021187335</v>
+        <v>6033.308334117841</v>
       </c>
       <c r="H143" t="n">
-        <v>3.16092741898949</v>
+        <v>2.30810569849062</v>
       </c>
     </row>
     <row r="144">
@@ -4458,25 +4458,25 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>4.318409423084919</v>
+        <v>6.109399064014157</v>
       </c>
       <c r="C144" t="n">
-        <v>0.04784874132220628</v>
+        <v>0.09944301277780053</v>
       </c>
       <c r="D144" t="n">
-        <v>1.971523837170661</v>
+        <v>2.009764217347384</v>
       </c>
       <c r="E144" t="n">
-        <v>18.92893068100772</v>
+        <v>17.22941865766742</v>
       </c>
       <c r="F144" t="n">
-        <v>0.1780953886840139</v>
+        <v>0.1824865897987575</v>
       </c>
       <c r="G144" t="n">
-        <v>6110.694107598733</v>
+        <v>6066.406849790499</v>
       </c>
       <c r="H144" t="n">
-        <v>3.21207914250199</v>
+        <v>1.86508514148709</v>
       </c>
     </row>
     <row r="145">
@@ -4486,25 +4486,25 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>4.316592887121308</v>
+        <v>5.765442717707424</v>
       </c>
       <c r="C145" t="n">
-        <v>0.04777059264736705</v>
+        <v>0.08540085076689455</v>
       </c>
       <c r="D145" t="n">
-        <v>1.961102797056297</v>
+        <v>1.973949553871646</v>
       </c>
       <c r="E145" t="n">
-        <v>18.91906930217358</v>
+        <v>16.20752131627321</v>
       </c>
       <c r="F145" t="n">
-        <v>0.1780192883785557</v>
+        <v>0.1862725373270554</v>
       </c>
       <c r="G145" t="n">
-        <v>6106.984988324563</v>
+        <v>6026.458099473805</v>
       </c>
       <c r="H145" t="n">
-        <v>3.26578467028541</v>
+        <v>2.81978070747919</v>
       </c>
     </row>
     <row r="146">
@@ -4514,25 +4514,25 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>4.317910228267175</v>
+        <v>6.130454682650956</v>
       </c>
       <c r="C146" t="n">
-        <v>0.04811730294636093</v>
+        <v>0.1934157313352385</v>
       </c>
       <c r="D146" t="n">
-        <v>1.940634024767828</v>
+        <v>1.935350080624117</v>
       </c>
       <c r="E146" t="n">
-        <v>18.92373366122515</v>
+        <v>18.95481397240277</v>
       </c>
       <c r="F146" t="n">
-        <v>0.178025548708151</v>
+        <v>0.1694574890682362</v>
       </c>
       <c r="G146" t="n">
-        <v>6106.742263974904</v>
+        <v>6110.066230553361</v>
       </c>
       <c r="H146" t="n">
-        <v>2.97783705896134</v>
+        <v>0.464707017391718</v>
       </c>
     </row>
     <row r="147">
@@ -4542,25 +4542,25 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>4.324263319655592</v>
+        <v>7.633800061386603</v>
       </c>
       <c r="C147" t="n">
-        <v>0.04827397811533397</v>
+        <v>0.1727277839817673</v>
       </c>
       <c r="D147" t="n">
-        <v>1.931413018262271</v>
+        <v>1.893610337748048</v>
       </c>
       <c r="E147" t="n">
-        <v>18.90123861220989</v>
+        <v>15.7674234014233</v>
       </c>
       <c r="F147" t="n">
-        <v>0.1778488898638143</v>
+        <v>0.1872054857979174</v>
       </c>
       <c r="G147" t="n">
-        <v>6099.756624812237</v>
+        <v>6004.371646917256</v>
       </c>
       <c r="H147" t="n">
-        <v>2.94485113409553</v>
+        <v>0.81693543651074</v>
       </c>
     </row>
     <row r="148">
@@ -4570,25 +4570,25 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>4.315544413567188</v>
+        <v>5.67103132373105</v>
       </c>
       <c r="C148" t="n">
-        <v>0.04785092188165936</v>
+        <v>0.09168035123147061</v>
       </c>
       <c r="D148" t="n">
-        <v>1.949905301036065</v>
+        <v>1.946581212048451</v>
       </c>
       <c r="E148" t="n">
-        <v>18.91639064327151</v>
+        <v>16.75290812382044</v>
       </c>
       <c r="F148" t="n">
-        <v>0.1778960926308247</v>
+        <v>0.1820158838545568</v>
       </c>
       <c r="G148" t="n">
-        <v>6105.392592178015</v>
+        <v>6039.689810829239</v>
       </c>
       <c r="H148" t="n">
-        <v>3.21625049049154</v>
+        <v>2.42811543445488</v>
       </c>
     </row>
     <row r="149">
@@ -4598,25 +4598,25 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>4.317860747648939</v>
+        <v>6.135020251573836</v>
       </c>
       <c r="C149" t="n">
-        <v>0.04791234155731497</v>
+        <v>0.09966050510537688</v>
       </c>
       <c r="D149" t="n">
-        <v>1.952831845750916</v>
+        <v>1.954428828904533</v>
       </c>
       <c r="E149" t="n">
-        <v>18.91740057929941</v>
+        <v>16.70083844575351</v>
       </c>
       <c r="F149" t="n">
-        <v>0.1779751183244735</v>
+        <v>0.1847238816836717</v>
       </c>
       <c r="G149" t="n">
-        <v>6106.016308309742</v>
+        <v>6040.903141366171</v>
       </c>
       <c r="H149" t="n">
-        <v>3.16669032037766</v>
+        <v>1.93925961392137</v>
       </c>
     </row>
     <row r="150">
@@ -4626,25 +4626,25 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>4.315819056834051</v>
+        <v>5.757104488470706</v>
       </c>
       <c r="C150" t="n">
-        <v>0.04787320144718066</v>
+        <v>0.09192539482240077</v>
       </c>
       <c r="D150" t="n">
-        <v>1.945356159180906</v>
+        <v>1.933432568964652</v>
       </c>
       <c r="E150" t="n">
-        <v>18.91311232391757</v>
+        <v>16.55511443642161</v>
       </c>
       <c r="F150" t="n">
-        <v>0.1778931727924213</v>
+        <v>0.1840228555168705</v>
       </c>
       <c r="G150" t="n">
-        <v>6104.095509723469</v>
+        <v>6031.856423559613</v>
       </c>
       <c r="H150" t="n">
-        <v>3.19323452002307</v>
+        <v>2.39117821651892</v>
       </c>
     </row>
     <row r="151">
@@ -4654,25 +4654,25 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>4.319363922419375</v>
+        <v>6.478075184963886</v>
       </c>
       <c r="C151" t="n">
-        <v>0.0480888843598863</v>
+        <v>0.151589558692924</v>
       </c>
       <c r="D151" t="n">
-        <v>1.947485364077295</v>
+        <v>1.947593932139346</v>
       </c>
       <c r="E151" t="n">
-        <v>18.92126852946339</v>
+        <v>17.9442677964106</v>
       </c>
       <c r="F151" t="n">
-        <v>0.1779632650116355</v>
+        <v>0.1774904802943458</v>
       </c>
       <c r="G151" t="n">
-        <v>6106.774826622683</v>
+        <v>6080.711383519219</v>
       </c>
       <c r="H151" t="n">
-        <v>3.03316074614908</v>
+        <v>0.774291404565728</v>
       </c>
     </row>
     <row r="152">
@@ -4682,25 +4682,25 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>4.318769245863507</v>
+        <v>6.336796062735884</v>
       </c>
       <c r="C152" t="n">
-        <v>0.04789796720408131</v>
+        <v>0.09841410884772317</v>
       </c>
       <c r="D152" t="n">
-        <v>1.957092461315005</v>
+        <v>1.964031319904357</v>
       </c>
       <c r="E152" t="n">
-        <v>18.91772940678583</v>
+        <v>16.36763631778307</v>
       </c>
       <c r="F152" t="n">
-        <v>0.1779927188912509</v>
+        <v>0.1857247153351227</v>
       </c>
       <c r="G152" t="n">
-        <v>6106.421491566863</v>
+        <v>6031.419653285638</v>
       </c>
       <c r="H152" t="n">
-        <v>3.17798094401906</v>
+        <v>1.95494485113654</v>
       </c>
     </row>
     <row r="153">
@@ -4710,25 +4710,25 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>4.316959844900752</v>
+        <v>6.062389020632726</v>
       </c>
       <c r="C153" t="n">
-        <v>0.04797445447300946</v>
+        <v>0.1066327171484425</v>
       </c>
       <c r="D153" t="n">
-        <v>1.94527799188925</v>
+        <v>1.937603815338886</v>
       </c>
       <c r="E153" t="n">
-        <v>18.91688065325248</v>
+        <v>17.28193057493038</v>
       </c>
       <c r="F153" t="n">
-        <v>0.1778956623474408</v>
+        <v>0.1802375061296917</v>
       </c>
       <c r="G153" t="n">
-        <v>6105.21680790426</v>
+        <v>6056.328741345627</v>
       </c>
       <c r="H153" t="n">
-        <v>3.12618611145466</v>
+        <v>1.54222137190917</v>
       </c>
     </row>
     <row r="154">
@@ -4738,25 +4738,25 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>4.31772405690373</v>
+        <v>5.919328552480751</v>
       </c>
       <c r="C154" t="n">
-        <v>0.0478106796338341</v>
+        <v>0.09374188574008979</v>
       </c>
       <c r="D154" t="n">
-        <v>1.973587225022754</v>
+        <v>2.01651727455775</v>
       </c>
       <c r="E154" t="n">
-        <v>18.93024315001367</v>
+        <v>17.29609612013396</v>
       </c>
       <c r="F154" t="n">
-        <v>0.1782533128476304</v>
+        <v>0.1883352345258706</v>
       </c>
       <c r="G154" t="n">
-        <v>6111.280562459615</v>
+        <v>6071.65095367334</v>
       </c>
       <c r="H154" t="n">
-        <v>3.23455559098759</v>
+        <v>2.05835467073948</v>
       </c>
     </row>
     <row r="155">
@@ -4766,25 +4766,25 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>4.314908553719446</v>
+        <v>5.319636074943731</v>
       </c>
       <c r="C155" t="n">
-        <v>0.04772946013907042</v>
+        <v>0.08255738576349632</v>
       </c>
       <c r="D155" t="n">
-        <v>1.964372159576892</v>
+        <v>1.986036122778292</v>
       </c>
       <c r="E155" t="n">
-        <v>18.92321807655744</v>
+        <v>16.70717958135663</v>
       </c>
       <c r="F155" t="n">
-        <v>0.1780613062468765</v>
+        <v>0.1852297191955735</v>
       </c>
       <c r="G155" t="n">
-        <v>6108.416341708496</v>
+        <v>6044.360485634568</v>
       </c>
       <c r="H155" t="n">
-        <v>3.30737831423339</v>
+        <v>3.03147070946879</v>
       </c>
     </row>
     <row r="156">
@@ -4794,25 +4794,25 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>4.318073279900521</v>
+        <v>6.134266404981862</v>
       </c>
       <c r="C156" t="n">
-        <v>0.0478790022851343</v>
+        <v>0.09684043355003262</v>
       </c>
       <c r="D156" t="n">
-        <v>1.958471032662247</v>
+        <v>1.969628367431068</v>
       </c>
       <c r="E156" t="n">
-        <v>18.91997872596213</v>
+        <v>16.67041942545742</v>
       </c>
       <c r="F156" t="n">
-        <v>0.1780167333425322</v>
+        <v>0.1852491257354773</v>
       </c>
       <c r="G156" t="n">
-        <v>6107.178574982632</v>
+        <v>6042.159259674548</v>
       </c>
       <c r="H156" t="n">
-        <v>3.18795201909234</v>
+        <v>2.02133126600912</v>
       </c>
     </row>
     <row r="157">
@@ -4822,25 +4822,25 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>4.317417342469065</v>
+        <v>5.961454841460599</v>
       </c>
       <c r="C157" t="n">
-        <v>0.04785012357560506</v>
+        <v>0.09354108818946631</v>
       </c>
       <c r="D157" t="n">
-        <v>1.959946259670112</v>
+        <v>1.974453334203121</v>
       </c>
       <c r="E157" t="n">
-        <v>18.92131393652703</v>
+        <v>16.78841219118964</v>
       </c>
       <c r="F157" t="n">
-        <v>0.1780592557910401</v>
+        <v>0.1860820749933585</v>
       </c>
       <c r="G157" t="n">
-        <v>6107.680954243309</v>
+        <v>6046.95322977709</v>
       </c>
       <c r="H157" t="n">
-        <v>3.206344538151</v>
+        <v>2.17446236382863</v>
       </c>
     </row>
     <row r="158">
@@ -4850,25 +4850,25 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>4.317477895099536</v>
+        <v>5.833899443844949</v>
       </c>
       <c r="C158" t="n">
-        <v>0.04777152816852411</v>
+        <v>0.08908994336362516</v>
       </c>
       <c r="D158" t="n">
-        <v>1.97577581716353</v>
+        <v>2.02029463546457</v>
       </c>
       <c r="E158" t="n">
-        <v>18.92963414536629</v>
+        <v>16.93287501427262</v>
       </c>
       <c r="F158" t="n">
-        <v>0.1781538245180553</v>
+        <v>0.1853685908246507</v>
       </c>
       <c r="G158" t="n">
-        <v>6111.073110987076</v>
+        <v>6057.864033236548</v>
       </c>
       <c r="H158" t="n">
-        <v>3.27442305181319</v>
+        <v>2.43241121255514</v>
       </c>
     </row>
     <row r="159">
@@ -4878,25 +4878,25 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>4.318765831384995</v>
+        <v>6.244501542566388</v>
       </c>
       <c r="C159" t="n">
-        <v>0.04787126259733414</v>
+        <v>0.09734937427905269</v>
       </c>
       <c r="D159" t="n">
-        <v>1.963767015954887</v>
+        <v>1.984648617375515</v>
       </c>
       <c r="E159" t="n">
-        <v>18.92276308967975</v>
+        <v>16.72317140614592</v>
       </c>
       <c r="F159" t="n">
-        <v>0.1780380947592481</v>
+        <v>0.1846651269793013</v>
       </c>
       <c r="G159" t="n">
-        <v>6108.361548039814</v>
+        <v>6046.006531612542</v>
       </c>
       <c r="H159" t="n">
-        <v>3.18864108691588</v>
+        <v>1.92208203073051</v>
       </c>
     </row>
     <row r="160">
@@ -4906,25 +4906,25 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>4.315270401417476</v>
+        <v>5.40071117188863</v>
       </c>
       <c r="C160" t="n">
-        <v>0.04772870149045575</v>
+        <v>0.08213084286437636</v>
       </c>
       <c r="D160" t="n">
-        <v>1.96470138039636</v>
+        <v>1.985677767271801</v>
       </c>
       <c r="E160" t="n">
-        <v>18.9223207891087</v>
+        <v>16.49373378162075</v>
       </c>
       <c r="F160" t="n">
-        <v>0.1780610525736679</v>
+        <v>0.1860546421315961</v>
       </c>
       <c r="G160" t="n">
-        <v>6108.158367484991</v>
+        <v>6037.261916993382</v>
       </c>
       <c r="H160" t="n">
-        <v>3.30919196040644</v>
+        <v>3.05785174874412</v>
       </c>
     </row>
     <row r="161">
@@ -4934,25 +4934,25 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>4.318709295399003</v>
+        <v>6.184202237738541</v>
       </c>
       <c r="C161" t="n">
-        <v>0.04787730373020919</v>
+        <v>0.1050721618963906</v>
       </c>
       <c r="D161" t="n">
-        <v>1.972751538256009</v>
+        <v>2.016232557491778</v>
       </c>
       <c r="E161" t="n">
-        <v>18.93164464513487</v>
+        <v>17.69151632265087</v>
       </c>
       <c r="F161" t="n">
-        <v>0.1781327008167745</v>
+        <v>0.1816355592311499</v>
       </c>
       <c r="G161" t="n">
-        <v>6111.659937509381</v>
+        <v>6083.3337243338</v>
       </c>
       <c r="H161" t="n">
-        <v>3.18212767905733</v>
+        <v>1.46922596464328</v>
       </c>
     </row>
     <row r="162">
@@ -4962,25 +4962,25 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>4.316219652042092</v>
+        <v>5.715374069036395</v>
       </c>
       <c r="C162" t="n">
-        <v>0.04782705877392916</v>
+        <v>0.09033992413008932</v>
       </c>
       <c r="D162" t="n">
-        <v>1.960025399838387</v>
+        <v>1.977275211447845</v>
       </c>
       <c r="E162" t="n">
-        <v>18.92374676446984</v>
+        <v>17.25479216251558</v>
       </c>
       <c r="F162" t="n">
-        <v>0.1780182749259062</v>
+        <v>0.1826195445903534</v>
       </c>
       <c r="G162" t="n">
-        <v>6108.369838400784</v>
+        <v>6061.469018555469</v>
       </c>
       <c r="H162" t="n">
-        <v>3.21520628640702</v>
+        <v>2.1661526560921</v>
       </c>
     </row>
     <row r="163">
@@ -4990,25 +4990,25 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>4.318204412152548</v>
+        <v>6.236472955968742</v>
       </c>
       <c r="C163" t="n">
-        <v>0.04799518572353239</v>
+        <v>0.1139625668353853</v>
       </c>
       <c r="D163" t="n">
-        <v>1.94979672764565</v>
+        <v>1.951622728085215</v>
       </c>
       <c r="E163" t="n">
-        <v>18.92064131772031</v>
+        <v>17.60859963911679</v>
       </c>
       <c r="F163" t="n">
-        <v>0.1779355934751091</v>
+        <v>0.1791671296887396</v>
       </c>
       <c r="G163" t="n">
-        <v>6106.74080222019</v>
+        <v>6069.589273446024</v>
       </c>
       <c r="H163" t="n">
-        <v>3.09100300936517</v>
+        <v>1.20147507817197</v>
       </c>
     </row>
     <row r="164">
@@ -5018,25 +5018,25 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>4.317979003136304</v>
+        <v>6.313072109215973</v>
       </c>
       <c r="C164" t="n">
-        <v>0.04808075170967643</v>
+        <v>0.1114065868963702</v>
       </c>
       <c r="D164" t="n">
-        <v>1.930723818367972</v>
+        <v>1.89761138994003</v>
       </c>
       <c r="E164" t="n">
-        <v>18.90754999916379</v>
+        <v>16.85715350220677</v>
       </c>
       <c r="F164" t="n">
-        <v>0.1777390169888552</v>
+        <v>0.1801021541975897</v>
       </c>
       <c r="G164" t="n">
-        <v>6101.158771997952</v>
+        <v>6035.932848688393</v>
       </c>
       <c r="H164" t="n">
-        <v>3.04405187577481</v>
+        <v>1.37849176816605</v>
       </c>
     </row>
     <row r="165">
@@ -5046,25 +5046,25 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>4.316719874739353</v>
+        <v>6.070670172113967</v>
       </c>
       <c r="C165" t="n">
-        <v>0.04800723069127072</v>
+        <v>0.1011744858617092</v>
       </c>
       <c r="D165" t="n">
-        <v>1.933339813525655</v>
+        <v>1.903717483425446</v>
       </c>
       <c r="E165" t="n">
-        <v>18.90838337510166</v>
+        <v>16.76974049274375</v>
       </c>
       <c r="F165" t="n">
-        <v>0.1777992359476471</v>
+        <v>0.1824974364695998</v>
       </c>
       <c r="G165" t="n">
-        <v>6101.6536843654</v>
+        <v>6034.258248434066</v>
       </c>
       <c r="H165" t="n">
-        <v>3.09436882595227</v>
+        <v>1.70710805035104</v>
       </c>
     </row>
     <row r="166">
@@ -5074,25 +5074,25 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>4.318250457538627</v>
+        <v>5.869946871735816</v>
       </c>
       <c r="C166" t="n">
-        <v>0.04774131884098382</v>
+        <v>0.08917036322621241</v>
       </c>
       <c r="D166" t="n">
-        <v>1.994220581554488</v>
+        <v>2.080876924190836</v>
       </c>
       <c r="E166" t="n">
-        <v>18.94148710283261</v>
+        <v>17.66682075861587</v>
       </c>
       <c r="F166" t="n">
-        <v>0.1783460840051985</v>
+        <v>0.1860498878491949</v>
       </c>
       <c r="G166" t="n">
-        <v>6115.627581447453</v>
+        <v>6092.703901973687</v>
       </c>
       <c r="H166" t="n">
-        <v>3.29415378724804</v>
+        <v>2.10631702027185</v>
       </c>
     </row>
     <row r="167">
@@ -5102,25 +5102,25 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>4.316008522595691</v>
+        <v>5.622912365640931</v>
       </c>
       <c r="C167" t="n">
-        <v>0.04778983995946277</v>
+        <v>0.0860979562920252</v>
       </c>
       <c r="D167" t="n">
-        <v>1.962329221085133</v>
+        <v>1.981601849326707</v>
       </c>
       <c r="E167" t="n">
-        <v>18.92319967524034</v>
+        <v>16.91892808892093</v>
       </c>
       <c r="F167" t="n">
-        <v>0.1780252406390501</v>
+        <v>0.184090243021105</v>
       </c>
       <c r="G167" t="n">
-        <v>6108.32413426159</v>
+        <v>6050.750925607292</v>
       </c>
       <c r="H167" t="n">
-        <v>3.25123723420096</v>
+        <v>2.50850079264793</v>
       </c>
     </row>
     <row r="168">
@@ -5130,25 +5130,25 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>4.317585395334077</v>
+        <v>5.913358078219826</v>
       </c>
       <c r="C168" t="n">
-        <v>0.04792596661145478</v>
+        <v>0.1268391691621618</v>
       </c>
       <c r="D168" t="n">
-        <v>1.965775948069665</v>
+        <v>2.004557173765998</v>
       </c>
       <c r="E168" t="n">
-        <v>18.93510729653951</v>
+        <v>19.07228373602771</v>
       </c>
       <c r="F168" t="n">
-        <v>0.1781875828709019</v>
+        <v>0.1742671925932768</v>
       </c>
       <c r="G168" t="n">
-        <v>6112.347575750327</v>
+        <v>6127.222272753341</v>
       </c>
       <c r="H168" t="n">
-        <v>3.09984056503796</v>
+        <v>0.737969894294815</v>
       </c>
     </row>
     <row r="169">
@@ -5158,25 +5158,25 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>4.316861201514377</v>
+        <v>5.790120952406415</v>
       </c>
       <c r="C169" t="n">
-        <v>0.04781030712580846</v>
+        <v>0.08838043488033651</v>
       </c>
       <c r="D169" t="n">
-        <v>1.96478475876085</v>
+        <v>1.989514451010052</v>
       </c>
       <c r="E169" t="n">
-        <v>18.92506761066696</v>
+        <v>17.07101136211411</v>
       </c>
       <c r="F169" t="n">
-        <v>0.1780643107980907</v>
+        <v>0.1845412615576536</v>
       </c>
       <c r="G169" t="n">
-        <v>6109.08834193947</v>
+        <v>6057.586803163212</v>
       </c>
       <c r="H169" t="n">
-        <v>3.22782359937874</v>
+        <v>2.24480464354105</v>
       </c>
     </row>
     <row r="170">
@@ -5186,25 +5186,25 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>4.31744246751948</v>
+        <v>5.965867672823286</v>
       </c>
       <c r="C170" t="n">
-        <v>0.04791681442285609</v>
+        <v>0.1125214234392961</v>
       </c>
       <c r="D170" t="n">
-        <v>1.96418336094492</v>
+        <v>1.996796550734165</v>
       </c>
       <c r="E170" t="n">
-        <v>18.93192834099305</v>
+        <v>18.55306340005592</v>
       </c>
       <c r="F170" t="n">
-        <v>0.1780774387122438</v>
+        <v>0.1759003180723507</v>
       </c>
       <c r="G170" t="n">
-        <v>6111.216898422967</v>
+        <v>6107.99436908455</v>
       </c>
       <c r="H170" t="n">
-        <v>3.1289499743054</v>
+        <v>0.996914293730619</v>
       </c>
     </row>
     <row r="171">
@@ -5214,25 +5214,25 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>4.317798454466308</v>
+        <v>6.124699441191908</v>
       </c>
       <c r="C171" t="n">
-        <v>0.04794532519768922</v>
+        <v>0.1016948841210806</v>
       </c>
       <c r="D171" t="n">
-        <v>1.951418504066755</v>
+        <v>1.954599522400586</v>
       </c>
       <c r="E171" t="n">
-        <v>18.92024973434677</v>
+        <v>17.38037585610919</v>
       </c>
       <c r="F171" t="n">
-        <v>0.1779496115822088</v>
+        <v>0.1814866564805682</v>
       </c>
       <c r="G171" t="n">
-        <v>6106.744964554901</v>
+        <v>6062.497545176116</v>
       </c>
       <c r="H171" t="n">
-        <v>3.11779379827188</v>
+        <v>1.4659253112489</v>
       </c>
     </row>
     <row r="172">
@@ -5242,25 +5242,25 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>4.314409916000352</v>
+        <v>5.478754678266789</v>
       </c>
       <c r="C172" t="n">
-        <v>0.04782681081104338</v>
+        <v>0.0857201611958931</v>
       </c>
       <c r="D172" t="n">
-        <v>1.948357493090043</v>
+        <v>1.94507093563138</v>
       </c>
       <c r="E172" t="n">
-        <v>18.91803649913493</v>
+        <v>17.19483855271706</v>
       </c>
       <c r="F172" t="n">
-        <v>0.1779204163384765</v>
+        <v>0.1824320038582515</v>
       </c>
       <c r="G172" t="n">
-        <v>6105.737932890996</v>
+        <v>6053.628572384716</v>
       </c>
       <c r="H172" t="n">
-        <v>3.20640715754934</v>
+        <v>2.29313915579159</v>
       </c>
     </row>
     <row r="173">
@@ -5270,25 +5270,25 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>4.316981956998167</v>
+        <v>5.645223005351721</v>
       </c>
       <c r="C173" t="n">
-        <v>0.04775627260666272</v>
+        <v>0.09049865838785941</v>
       </c>
       <c r="D173" t="n">
-        <v>1.987543627237545</v>
+        <v>2.066354647216741</v>
       </c>
       <c r="E173" t="n">
-        <v>18.9427167290828</v>
+        <v>18.64911780275225</v>
       </c>
       <c r="F173" t="n">
-        <v>0.1783483286881128</v>
+        <v>0.1836269659383449</v>
       </c>
       <c r="G173" t="n">
-        <v>6115.920511097819</v>
+        <v>6124.476161766827</v>
       </c>
       <c r="H173" t="n">
-        <v>3.24471865395251</v>
+        <v>1.55922782514826</v>
       </c>
     </row>
     <row r="174">
@@ -5298,25 +5298,25 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>4.315127222722939</v>
+        <v>5.336598272696659</v>
       </c>
       <c r="C174" t="n">
-        <v>0.04772323426391164</v>
+        <v>0.0800040927553238</v>
       </c>
       <c r="D174" t="n">
-        <v>1.969266046379643</v>
+        <v>2.003866774734056</v>
       </c>
       <c r="E174" t="n">
-        <v>18.92868536353486</v>
+        <v>17.36148398487696</v>
       </c>
       <c r="F174" t="n">
-        <v>0.1780963092285443</v>
+        <v>0.1837183700676422</v>
       </c>
       <c r="G174" t="n">
-        <v>6110.407361626053</v>
+        <v>6068.489359113416</v>
       </c>
       <c r="H174" t="n">
-        <v>3.28192641794493</v>
+        <v>2.63832941736934</v>
       </c>
     </row>
     <row r="175">
@@ -5326,25 +5326,25 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>4.316796911452096</v>
+        <v>5.752385526957337</v>
       </c>
       <c r="C175" t="n">
-        <v>0.04783642671244653</v>
+        <v>0.09819204158303238</v>
       </c>
       <c r="D175" t="n">
-        <v>1.971423837920445</v>
+        <v>2.017888381508094</v>
       </c>
       <c r="E175" t="n">
-        <v>18.93551200389838</v>
+        <v>18.62647279872548</v>
       </c>
       <c r="F175" t="n">
-        <v>0.1781337261649276</v>
+        <v>0.1771703924023074</v>
       </c>
       <c r="G175" t="n">
-        <v>6112.775033079266</v>
+        <v>6113.81489857097</v>
       </c>
       <c r="H175" t="n">
-        <v>3.17439314183699</v>
+        <v>1.25843068222991</v>
       </c>
     </row>
     <row r="176">
@@ -5354,25 +5354,25 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>4.308712334924663</v>
+        <v>5.146877053963698</v>
       </c>
       <c r="C176" t="n">
-        <v>0.04841137644026366</v>
+        <v>0.1809484145227945</v>
       </c>
       <c r="D176" t="n">
-        <v>1.872774535786287</v>
+        <v>1.778899141487416</v>
       </c>
       <c r="E176" t="n">
-        <v>18.89975163765546</v>
+        <v>19.4633510447163</v>
       </c>
       <c r="F176" t="n">
-        <v>0.1775061679662454</v>
+        <v>0.1600754208916743</v>
       </c>
       <c r="G176" t="n">
-        <v>6089.25429636431</v>
+        <v>6089.075565557816</v>
       </c>
       <c r="H176" t="n">
-        <v>2.75894189573848</v>
+        <v>0.351264085296974</v>
       </c>
     </row>
     <row r="177">
@@ -5382,25 +5382,25 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>4.310029499130588</v>
+        <v>5.339341969057001</v>
       </c>
       <c r="C177" t="n">
-        <v>0.04824825743854284</v>
+        <v>0.1231695998648339</v>
       </c>
       <c r="D177" t="n">
-        <v>1.886991741733995</v>
+        <v>1.805135664180813</v>
       </c>
       <c r="E177" t="n">
-        <v>18.89990838209031</v>
+        <v>18.69763247718346</v>
       </c>
       <c r="F177" t="n">
-        <v>0.1776037763666144</v>
+        <v>0.1682246315910222</v>
       </c>
       <c r="G177" t="n">
-        <v>6092.310450743462</v>
+        <v>6072.433437479164</v>
       </c>
       <c r="H177" t="n">
-        <v>2.86868179997424</v>
+        <v>0.668429684964659</v>
       </c>
     </row>
     <row r="178">
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>4.310833118321638</v>
+        <v>4.46716880874677</v>
       </c>
       <c r="C178" t="n">
-        <v>0.04760390564042185</v>
+        <v>0.06945874326040626</v>
       </c>
       <c r="D178" t="n">
-        <v>1.967706521512817</v>
+        <v>2.004881051508449</v>
       </c>
       <c r="E178" t="n">
-        <v>18.9329284370121</v>
+        <v>18.34670513072185</v>
       </c>
       <c r="F178" t="n">
-        <v>0.1780292452688783</v>
+        <v>0.1768947173539954</v>
       </c>
       <c r="G178" t="n">
-        <v>6111.484155334761</v>
+        <v>6098.732545825786</v>
       </c>
       <c r="H178" t="n">
-        <v>3.33953002027401</v>
+        <v>2.80171223229549</v>
       </c>
     </row>
     <row r="179">
@@ -5438,25 +5438,25 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>4.311791752836995</v>
+        <v>4.963672468506511</v>
       </c>
       <c r="C179" t="n">
-        <v>0.04774322940751528</v>
+        <v>0.08027715518408063</v>
       </c>
       <c r="D179" t="n">
-        <v>1.94863906582155</v>
+        <v>1.942188778712913</v>
       </c>
       <c r="E179" t="n">
-        <v>18.91536851393248</v>
+        <v>16.63642119358323</v>
       </c>
       <c r="F179" t="n">
-        <v>0.1778553891251315</v>
+        <v>0.181828294046503</v>
       </c>
       <c r="G179" t="n">
-        <v>6104.863309424077</v>
+        <v>6033.257347199763</v>
       </c>
       <c r="H179" t="n">
-        <v>3.32259953351941</v>
+        <v>3.07042272066958</v>
       </c>
     </row>
     <row r="180">
@@ -5466,25 +5466,25 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>4.309997638475093</v>
+        <v>5.280374096541992</v>
       </c>
       <c r="C180" t="n">
-        <v>0.0480097797266807</v>
+        <v>0.09496125881852838</v>
       </c>
       <c r="D180" t="n">
-        <v>1.911362278236924</v>
+        <v>1.855623450996811</v>
       </c>
       <c r="E180" t="n">
-        <v>18.90501184860151</v>
+        <v>17.86412729863914</v>
       </c>
       <c r="F180" t="n">
-        <v>0.1775292597163664</v>
+        <v>0.1691425496299632</v>
       </c>
       <c r="G180" t="n">
-        <v>6097.701164392983</v>
+        <v>6056.228739169607</v>
       </c>
       <c r="H180" t="n">
-        <v>3.08278177366796</v>
+        <v>1.53998188836262</v>
       </c>
     </row>
     <row r="181">
@@ -5494,25 +5494,25 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>4.307832949750996</v>
+        <v>5.086137846888587</v>
       </c>
       <c r="C181" t="n">
-        <v>0.04812057775541437</v>
+        <v>0.09488856848235003</v>
       </c>
       <c r="D181" t="n">
-        <v>1.884660343529531</v>
+        <v>1.798043048075387</v>
       </c>
       <c r="E181" t="n">
-        <v>18.89703604415232</v>
+        <v>18.40784418503245</v>
       </c>
       <c r="F181" t="n">
-        <v>0.1773807603468469</v>
+        <v>0.1666170590355688</v>
       </c>
       <c r="G181" t="n">
-        <v>6091.063937552851</v>
+        <v>6060.084587364063</v>
       </c>
       <c r="H181" t="n">
-        <v>2.91075904689302</v>
+        <v>1.09956958728062</v>
       </c>
     </row>
     <row r="182">
@@ -5522,25 +5522,25 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>4.297193140308595</v>
+        <v>4.334974575930179</v>
       </c>
       <c r="C182" t="n">
-        <v>0.04804998228991795</v>
+        <v>0.0775587406627247</v>
       </c>
       <c r="D182" t="n">
-        <v>1.852414547693957</v>
+        <v>1.728668194269041</v>
       </c>
       <c r="E182" t="n">
-        <v>18.88007101118082</v>
+        <v>17.94787405434897</v>
       </c>
       <c r="F182" t="n">
-        <v>0.1771601520903532</v>
+        <v>0.1688478524702061</v>
       </c>
       <c r="G182" t="n">
-        <v>6080.014533494271</v>
+        <v>6029.620265092658</v>
       </c>
       <c r="H182" t="n">
-        <v>2.93914335995688</v>
+        <v>1.69458125610132</v>
       </c>
     </row>
     <row r="183">
@@ -5550,25 +5550,25 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>4.294311552776256</v>
+        <v>4.171178833308395</v>
       </c>
       <c r="C183" t="n">
-        <v>0.0480319459960141</v>
+        <v>0.07422793704249356</v>
       </c>
       <c r="D183" t="n">
-        <v>1.842902914628631</v>
+        <v>1.707999559772076</v>
       </c>
       <c r="E183" t="n">
-        <v>18.87256920631799</v>
+        <v>17.5482431355292</v>
       </c>
       <c r="F183" t="n">
-        <v>0.1770218354363543</v>
+        <v>0.1695537962586656</v>
       </c>
       <c r="G183" t="n">
-        <v>6076.020246729917</v>
+        <v>6012.713530717468</v>
       </c>
       <c r="H183" t="n">
-        <v>2.95093694831206</v>
+        <v>1.92111211866017</v>
       </c>
     </row>
     <row r="184">
@@ -5578,25 +5578,25 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>4.291357136018494</v>
+        <v>3.395526628191507</v>
       </c>
       <c r="C184" t="n">
-        <v>0.04768969989519714</v>
+        <v>0.06486480681483568</v>
       </c>
       <c r="D184" t="n">
-        <v>1.845909498199425</v>
+        <v>1.693550326160741</v>
       </c>
       <c r="E184" t="n">
-        <v>18.84224279143287</v>
+        <v>13.84703959247306</v>
       </c>
       <c r="F184" t="n">
-        <v>0.1768462578136873</v>
+        <v>0.1821609939391486</v>
       </c>
       <c r="G184" t="n">
-        <v>6070.786211666416</v>
+        <v>5901.969536969807</v>
       </c>
       <c r="H184" t="n">
-        <v>3.27964097943822</v>
+        <v>4.28688750785106</v>
       </c>
     </row>
     <row r="185">
@@ -5606,25 +5606,25 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>4.298597550019505</v>
+        <v>3.769737908962608</v>
       </c>
       <c r="C185" t="n">
-        <v>0.04769018558917455</v>
+        <v>0.06811071528025699</v>
       </c>
       <c r="D185" t="n">
-        <v>1.877631035260646</v>
+        <v>1.762388435159292</v>
       </c>
       <c r="E185" t="n">
-        <v>18.86744497920735</v>
+        <v>14.7489361031453</v>
       </c>
       <c r="F185" t="n">
-        <v>0.1771777375281529</v>
+        <v>0.181959457460222</v>
       </c>
       <c r="G185" t="n">
-        <v>6082.926519042828</v>
+        <v>5942.28784191059</v>
       </c>
       <c r="H185" t="n">
-        <v>3.30117277663442</v>
+        <v>4.04310804592362</v>
       </c>
     </row>
     <row r="186">
@@ -5634,25 +5634,25 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>4.297283006427855</v>
+        <v>3.973042950838327</v>
       </c>
       <c r="C186" t="n">
-        <v>0.04780954335565154</v>
+        <v>0.06979480449401954</v>
       </c>
       <c r="D186" t="n">
-        <v>1.85665659934521</v>
+        <v>1.718277737649346</v>
       </c>
       <c r="E186" t="n">
-        <v>18.85388558058481</v>
+        <v>14.51671055395815</v>
       </c>
       <c r="F186" t="n">
-        <v>0.1769477968386685</v>
+        <v>0.180595920989977</v>
       </c>
       <c r="G186" t="n">
-        <v>6075.717887652766</v>
+        <v>5927.291105080702</v>
       </c>
       <c r="H186" t="n">
-        <v>3.19698696078938</v>
+        <v>3.83443755758946</v>
       </c>
     </row>
     <row r="187">
@@ -5662,25 +5662,25 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>4.309028254589849</v>
+        <v>5.084945905767577</v>
       </c>
       <c r="C187" t="n">
-        <v>0.04813572201015644</v>
+        <v>0.1189849625310205</v>
       </c>
       <c r="D187" t="n">
-        <v>1.89793532754189</v>
+        <v>1.833357526397847</v>
       </c>
       <c r="E187" t="n">
-        <v>18.90948141138902</v>
+        <v>19.42660731512483</v>
       </c>
       <c r="F187" t="n">
-        <v>0.1775801537330168</v>
+        <v>0.1631242056954721</v>
       </c>
       <c r="G187" t="n">
-        <v>6096.507232086717</v>
+        <v>6099.230434646672</v>
       </c>
       <c r="H187" t="n">
-        <v>2.91670661761635</v>
+        <v>0.6622345017062951</v>
       </c>
     </row>
     <row r="188">
@@ -5690,25 +5690,25 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>4.30581308544133</v>
+        <v>5.05688939366732</v>
       </c>
       <c r="C188" t="n">
-        <v>0.04806486466190497</v>
+        <v>0.08207111087516221</v>
       </c>
       <c r="D188" t="n">
-        <v>1.862116759038202</v>
+        <v>1.728235050901374</v>
       </c>
       <c r="E188" t="n">
-        <v>18.85469923486729</v>
+        <v>14.2977379837289</v>
       </c>
       <c r="F188" t="n">
-        <v>0.1770040143656182</v>
+        <v>0.1821857337987132</v>
       </c>
       <c r="G188" t="n">
-        <v>6077.267868076136</v>
+        <v>5924.395955657697</v>
       </c>
       <c r="H188" t="n">
-        <v>3.08143004617565</v>
+        <v>3.20943506344874</v>
       </c>
     </row>
     <row r="189">
@@ -5718,25 +5718,25 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>4.306746734317233</v>
+        <v>4.7614975374349</v>
       </c>
       <c r="C189" t="n">
-        <v>0.04787089061408743</v>
+        <v>0.07940669235906224</v>
       </c>
       <c r="D189" t="n">
-        <v>1.903505138902755</v>
+        <v>1.835200795360369</v>
       </c>
       <c r="E189" t="n">
-        <v>18.89940786536586</v>
+        <v>17.51377696923185</v>
       </c>
       <c r="F189" t="n">
-        <v>0.177472965655285</v>
+        <v>0.1724214657217589</v>
       </c>
       <c r="G189" t="n">
-        <v>6095.022551954056</v>
+        <v>6040.894052399436</v>
       </c>
       <c r="H189" t="n">
-        <v>3.11479914470286</v>
+        <v>2.25181348209953</v>
       </c>
     </row>
     <row r="190">
@@ -5746,25 +5746,25 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>4.31338270505072</v>
+        <v>5.559434108721963</v>
       </c>
       <c r="C190" t="n">
-        <v>0.04790159224248834</v>
+        <v>0.08565663911959549</v>
       </c>
       <c r="D190" t="n">
-        <v>1.920426691374633</v>
+        <v>1.864402076883698</v>
       </c>
       <c r="E190" t="n">
-        <v>18.89497496732605</v>
+        <v>15.55775183433699</v>
       </c>
       <c r="F190" t="n">
-        <v>0.1776408617122155</v>
+        <v>0.1849801171245277</v>
       </c>
       <c r="G190" t="n">
-        <v>6096.494154335726</v>
+        <v>5988.053814346442</v>
       </c>
       <c r="H190" t="n">
-        <v>3.17869939965917</v>
+        <v>2.82504321164653</v>
       </c>
     </row>
     <row r="191">
@@ -5774,25 +5774,25 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>4.307674405186841</v>
+        <v>4.658522696418506</v>
       </c>
       <c r="C191" t="n">
-        <v>0.04774926179454002</v>
+        <v>0.07411570745776791</v>
       </c>
       <c r="D191" t="n">
-        <v>1.906360636297944</v>
+        <v>1.826894447142607</v>
       </c>
       <c r="E191" t="n">
-        <v>18.88350476789282</v>
+        <v>14.86266946186316</v>
       </c>
       <c r="F191" t="n">
-        <v>0.1775293391801246</v>
+        <v>0.1860836376761028</v>
       </c>
       <c r="G191" t="n">
-        <v>6091.60620538624</v>
+        <v>5959.050793847421</v>
       </c>
       <c r="H191" t="n">
-        <v>3.27165033417974</v>
+        <v>3.79978749149142</v>
       </c>
     </row>
     <row r="192">
@@ -5802,25 +5802,25 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>4.313406279223472</v>
+        <v>5.497449404643714</v>
       </c>
       <c r="C192" t="n">
-        <v>0.04790442337505203</v>
+        <v>0.08989056483694696</v>
       </c>
       <c r="D192" t="n">
-        <v>1.933026909240047</v>
+        <v>1.905793733626405</v>
       </c>
       <c r="E192" t="n">
-        <v>18.91153624474548</v>
+        <v>17.31520272030268</v>
       </c>
       <c r="F192" t="n">
-        <v>0.1777511957589891</v>
+        <v>0.1787193633030958</v>
       </c>
       <c r="G192" t="n">
-        <v>6102.358287288928</v>
+        <v>6050.110224874417</v>
       </c>
       <c r="H192" t="n">
-        <v>3.14570733287326</v>
+        <v>1.99481223395671</v>
       </c>
     </row>
     <row r="193">
@@ -5830,25 +5830,25 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>4.311456267792284</v>
+        <v>5.201504880646677</v>
       </c>
       <c r="C193" t="n">
-        <v>0.04782261678805506</v>
+        <v>0.07996682536635748</v>
       </c>
       <c r="D193" t="n">
-        <v>1.918734640243563</v>
+        <v>1.858819950272791</v>
       </c>
       <c r="E193" t="n">
-        <v>18.89272394873312</v>
+        <v>15.31053185400299</v>
       </c>
       <c r="F193" t="n">
-        <v>0.177641915920449</v>
+        <v>0.1859860518752151</v>
       </c>
       <c r="G193" t="n">
-        <v>6095.649075541009</v>
+        <v>5979.009344640256</v>
       </c>
       <c r="H193" t="n">
-        <v>3.22876043838543</v>
+        <v>3.28005592909991</v>
       </c>
     </row>
     <row r="194">
@@ -5858,25 +5858,25 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>4.314962506594144</v>
+        <v>5.849656158778867</v>
       </c>
       <c r="C194" t="n">
-        <v>0.04819050548604313</v>
+        <v>0.1461500031280308</v>
       </c>
       <c r="D194" t="n">
-        <v>1.915151920543195</v>
+        <v>1.869000298152803</v>
       </c>
       <c r="E194" t="n">
-        <v>18.9107074437395</v>
+        <v>18.5600153711998</v>
       </c>
       <c r="F194" t="n">
-        <v>0.177733645071374</v>
+        <v>0.1662061878781886</v>
       </c>
       <c r="G194" t="n">
-        <v>6099.861130470671</v>
+        <v>6082.520181520707</v>
       </c>
       <c r="H194" t="n">
-        <v>2.93917061071266</v>
+        <v>0.609428001407854</v>
       </c>
     </row>
     <row r="195">
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>4.313244852638682</v>
+        <v>5.563863205991361</v>
       </c>
       <c r="C195" t="n">
-        <v>0.04788423837597586</v>
+        <v>0.0831424729192483</v>
       </c>
       <c r="D195" t="n">
-        <v>1.917601475195409</v>
+        <v>1.855961335671454</v>
       </c>
       <c r="E195" t="n">
-        <v>18.89175021747044</v>
+        <v>15.26795419346889</v>
       </c>
       <c r="F195" t="n">
-        <v>0.1776381541813666</v>
+        <v>0.1863199458510567</v>
       </c>
       <c r="G195" t="n">
-        <v>6095.31524121143</v>
+        <v>5977.871112889748</v>
       </c>
       <c r="H195" t="n">
-        <v>3.17838483407358</v>
+        <v>2.96881538526241</v>
       </c>
     </row>
     <row r="196">
@@ -5914,25 +5914,25 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>4.307337474479721</v>
+        <v>4.84231291128928</v>
       </c>
       <c r="C196" t="n">
-        <v>0.04788401682460017</v>
+        <v>0.0792463643409758</v>
       </c>
       <c r="D196" t="n">
-        <v>1.892728913011611</v>
+        <v>1.797845961029307</v>
       </c>
       <c r="E196" t="n">
-        <v>18.87829728955881</v>
+        <v>15.18515806434311</v>
       </c>
       <c r="F196" t="n">
-        <v>0.1773557283350812</v>
+        <v>0.1829366318576019</v>
       </c>
       <c r="G196" t="n">
-        <v>6088.277692811407</v>
+        <v>5963.836011286414</v>
       </c>
       <c r="H196" t="n">
-        <v>3.18304845736692</v>
+        <v>3.33298094862207</v>
       </c>
     </row>
     <row r="197">
@@ -5942,25 +5942,25 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>4.303082172269917</v>
+        <v>4.849197162693841</v>
       </c>
       <c r="C197" t="n">
-        <v>0.04899368974535283</v>
+        <v>0.4016816008902482</v>
       </c>
       <c r="D197" t="n">
-        <v>1.824605435803829</v>
+        <v>1.687606169767946</v>
       </c>
       <c r="E197" t="n">
-        <v>18.88626701270795</v>
+        <v>19.96867512100632</v>
       </c>
       <c r="F197" t="n">
-        <v>0.1769444486976169</v>
+        <v>0.1596441463886552</v>
       </c>
       <c r="G197" t="n">
-        <v>6073.539517569239</v>
+        <v>6079.682213720695</v>
       </c>
       <c r="H197" t="n">
-        <v>2.52052478832824</v>
+        <v>0.180309860289416</v>
       </c>
     </row>
     <row r="198">
@@ -5970,25 +5970,25 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>142.6768922805786</v>
+        <v>329.222519159317</v>
       </c>
       <c r="C198" t="n">
-        <v>142.6768922805786</v>
+        <v>329.222519159317</v>
       </c>
       <c r="D198" t="n">
-        <v>142.6768922805786</v>
+        <v>329.222519159317</v>
       </c>
       <c r="E198" t="n">
-        <v>142.6768922805786</v>
+        <v>329.222519159317</v>
       </c>
       <c r="F198" t="n">
-        <v>142.6768922805786</v>
+        <v>329.222519159317</v>
       </c>
       <c r="G198" t="n">
-        <v>142.6768922805786</v>
+        <v>329.222519159317</v>
       </c>
       <c r="H198" t="n">
-        <v>142.6768922805786</v>
+        <v>329.222519159317</v>
       </c>
     </row>
   </sheetData>
